--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.078</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.807</v>
+        <v>25.724</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.53032562373663</v>
+        <v>27.24703021489995</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.53033790145727</v>
+        <v>30.1508925905553</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.53033590260813</v>
+        <v>30.25663733513516</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.53003063563672</v>
+        <v>30.34272242739738</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.53003761676342</v>
+        <v>31.80235541456879</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.53003692343992</v>
+        <v>31.95402736091597</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.53039735454629</v>
+        <v>29.46069553836369</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.53040333312248</v>
+        <v>30.87582631701155</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.53040356290381</v>
+        <v>31.03486982715353</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.52904657572346</v>
+        <v>32.84771331189378</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.52905491204673</v>
+        <v>34.40956449906174</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.52905471638441</v>
+        <v>34.46928695153206</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.5289494886619</v>
+        <v>32.98908792470313</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.52896448912826</v>
+        <v>35.65152019716034</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.52896446397071</v>
+        <v>35.72655428489669</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.5289568953184</v>
+        <v>30.97949538036798</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.52897739533698</v>
+        <v>36.8054952721442</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.52897827968608</v>
+        <v>37.07198869895763</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.52854225587201</v>
+        <v>37.71234872260491</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.52855873200678</v>
+        <v>41.63484769796943</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.52855922313296</v>
+        <v>41.92749906964438</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.52907337741795</v>
+        <v>36.05318185446676</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.52908644896713</v>
+        <v>39.85708744100491</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.52866055742808</v>
+        <v>40.10939534160965</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.52628948935866</v>
+        <v>44.19441119113046</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.52629967335344</v>
+        <v>47.0473783173901</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.52629949068773</v>
+        <v>47.1991801973449</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.52611065628278</v>
+        <v>44.38693975991285</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.52613398877495</v>
+        <v>48.92375828753065</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.52615355871891</v>
+        <v>49.14370237237706</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.52843025217406</v>
+        <v>35.56226706339481</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.52843092643181</v>
+        <v>41.55881074911593</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.52862625901052</v>
+        <v>41.84887680353807</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.52823235297069</v>
+        <v>44.13256491981697</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.52818965770971</v>
+        <v>48.03145864903412</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.52819277574836</v>
+        <v>48.27679234277079</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.52880056529991</v>
+        <v>41.96551743250028</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.52875993624241</v>
+        <v>45.74244358254307</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.52853896505202</v>
+        <v>45.92890150603395</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.52604808368972</v>
+        <v>51.16703971912465</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.52607617229449</v>
+        <v>53.95814554072849</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.52607762933823</v>
+        <v>54.10947236754431</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.52585267751858</v>
+        <v>51.29298160137729</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.52590829344556</v>
+        <v>55.72214806933658</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.5258745092333</v>
+        <v>55.95713092392866</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.53046363362902</v>
+        <v>24.41516471166532</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.5297199377912</v>
+        <v>28.02722567577927</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.5297179442226</v>
+        <v>28.18948151896612</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.52938320473546</v>
+        <v>27.25488942253178</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.5293922793819</v>
+        <v>29.06137110349966</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.52938942774682</v>
+        <v>29.25306074906521</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.52982226172657</v>
+        <v>26.46067884709426</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.52982315523574</v>
+        <v>28.27208406297189</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.52982146079213</v>
+        <v>28.48839121706746</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.52817100936333</v>
+        <v>29.81243129296636</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.52819230794176</v>
+        <v>31.69812970028903</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.52819114170959</v>
+        <v>31.7985123875815</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.52804556929078</v>
+        <v>29.98138309859274</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.52808551788944</v>
+        <v>33.18489574021254</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.52808476373171</v>
+        <v>33.32744975401604</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.52788091675492</v>
+        <v>26.77683279380604</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.52841586465658</v>
+        <v>33.86279620349868</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.52842214395129</v>
+        <v>34.28565209819507</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.52815826683657</v>
+        <v>33.99934643841785</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.52815784171861</v>
+        <v>38.64869753434142</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.52815920793281</v>
+        <v>39.06156324506755</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.52876890578653</v>
+        <v>32.14762272065013</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.528666028065</v>
+        <v>36.64113116576063</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.52866993828246</v>
+        <v>37.01722772267494</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.52567754287575</v>
+        <v>41.82596222529473</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.52580960803547</v>
+        <v>45.23131987449845</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.52579948553513</v>
+        <v>45.47024403222233</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.52558732621737</v>
+        <v>42.35632324257246</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.52565267262625</v>
+        <v>47.78455738140008</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.52564163926521</v>
+        <v>48.14429546705443</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.52754880387819</v>
+        <v>32.21709027379617</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.52755665901483</v>
+        <v>39.45554548139921</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.52757167529831</v>
+        <v>39.86984164664487</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.52709429588275</v>
+        <v>41.7029029022429</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.52706751581021</v>
+        <v>46.30313767767444</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.52707548091342</v>
+        <v>46.65139451121566</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.52782680216041</v>
+        <v>39.25188917286053</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.52773650622537</v>
+        <v>43.69880912512173</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.52774903693246</v>
+        <v>43.98656204864305</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.52504447555433</v>
+        <v>50.18897261953079</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.52519148558559</v>
+        <v>53.50444784605496</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.52518905575032</v>
+        <v>53.7293433287183</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.52496813315234</v>
+        <v>50.64951820316106</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.52502942037543</v>
+        <v>55.92214689350087</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.52502866832219</v>
+        <v>56.27497223343007</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.52977730463277</v>
+        <v>24.41516471166532</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.53048898378957</v>
+        <v>28.02722567577927</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.53067938833329</v>
+        <v>28.18948151896612</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.53050834287417</v>
+        <v>27.25488942253178</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.53048026011683</v>
+        <v>29.06137110349966</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.53046122497705</v>
+        <v>29.25306074906521</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.53067994782101</v>
+        <v>26.46067884709426</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.53064412639269</v>
+        <v>28.27208406297189</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.53022919710055</v>
+        <v>28.48839121706746</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.52875083271556</v>
+        <v>29.81243129296636</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.52877027450733</v>
+        <v>31.69812970028903</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.52877301443084</v>
+        <v>31.7985123875815</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.52863182172446</v>
+        <v>29.98138309859274</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.5286648795588</v>
+        <v>33.18489574021254</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.52858259111422</v>
+        <v>33.32744975401604</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.52873255746742</v>
+        <v>26.77683279380604</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.52876323806662</v>
+        <v>33.86279620349868</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.52907543373912</v>
+        <v>34.28565209819507</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.52881060837545</v>
+        <v>33.99934643841785</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.52875227293037</v>
+        <v>38.64869753434142</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.52872392752498</v>
+        <v>39.06156324506755</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.52912363492289</v>
+        <v>32.14762272065013</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.52905700073373</v>
+        <v>36.64113116576063</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.52864393222477</v>
+        <v>37.01722772267494</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.52655512979638</v>
+        <v>41.82596222529473</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.52662255772664</v>
+        <v>45.23131987449845</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.52663900255327</v>
+        <v>45.47024403222233</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.52632739631254</v>
+        <v>42.35632324257246</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.52644823790702</v>
+        <v>47.78455738140008</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.52648193472719</v>
+        <v>48.14429546705443</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.52791520926844</v>
+        <v>32.21709027379617</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.52803851445027</v>
+        <v>39.45554548139921</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.52804066956928</v>
+        <v>39.86984164664487</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.52771194564401</v>
+        <v>41.7029029022429</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.52779481330412</v>
+        <v>46.30313767767444</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.52780138963061</v>
+        <v>46.65139451121566</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.52824838960479</v>
+        <v>39.25188917286053</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.52832456729401</v>
+        <v>43.69880912512173</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.52833274154376</v>
+        <v>43.98656204864305</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.52614223584062</v>
+        <v>50.18897261953079</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.52622132277376</v>
+        <v>53.50444784605496</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.52623406681032</v>
+        <v>53.7293433287183</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.52588520509829</v>
+        <v>50.64951820316106</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.52602707651562</v>
+        <v>55.92214689350087</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.52605434665092</v>
+        <v>56.27497223343007</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.5303039327619</v>
+        <v>24.61530201688966</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.53032066442324</v>
+        <v>27.68358926407607</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.53032001741278</v>
+        <v>27.81276072305332</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.53002247365163</v>
+        <v>27.37657604425085</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.53003224215725</v>
+        <v>28.91073000859305</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.53003283966015</v>
+        <v>29.07828887618166</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.53038759221014</v>
+        <v>26.58806435816829</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.53039626845223</v>
+        <v>28.07792930132234</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.53039761875509</v>
+        <v>28.25929656170455</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.52903081722468</v>
+        <v>29.95686693140698</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.52904328698845</v>
+        <v>31.60182162038107</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.52904400485135</v>
+        <v>31.67262668241774</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.52892245141613</v>
+        <v>30.23789527317519</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.52894477124498</v>
+        <v>33.0430867606833</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.52894602288392</v>
+        <v>33.13526204815205</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.52886671628329</v>
+        <v>29.21315270238389</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.52889063086657</v>
+        <v>35.42150270335867</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.52888892257305</v>
+        <v>35.73975166547062</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.52845001056738</v>
+        <v>35.97454836883723</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.52846716362298</v>
+        <v>40.13058516026032</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.52846369166955</v>
+        <v>40.46001733130583</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.52898620125764</v>
+        <v>34.2888755408558</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.52899953020113</v>
+        <v>38.3189300113065</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.52857346419008</v>
+        <v>38.6104586919168</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.52619041157905</v>
+        <v>42.88594503050586</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.52620114475</v>
+        <v>45.90972543033183</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.52619819451355</v>
+        <v>46.08827752778473</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.52600721519732</v>
+        <v>43.21169351944269</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.52603381304565</v>
+        <v>48.02129583351082</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.52605043420781</v>
+        <v>48.28412628569671</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.52829923652589</v>
+        <v>34.1345835227514</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.52829633694035</v>
+        <v>40.51934134536285</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.52845260944347</v>
+        <v>40.85512033025685</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.52804346260759</v>
+        <v>42.87413869152512</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.52799542622876</v>
+        <v>46.99796662609687</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.52799427169078</v>
+        <v>47.27466166212545</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.52863142441742</v>
+        <v>40.64929533238768</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.52858624777847</v>
+        <v>44.64411398991331</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.52839401290266</v>
+        <v>44.86178703350463</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.52592261824394</v>
+        <v>50.372869495629</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.52595161596413</v>
+        <v>53.32608191575362</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.52594857427944</v>
+        <v>53.50110147865533</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.52573288994324</v>
+        <v>50.62750174416179</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.52579049141999</v>
+        <v>55.31520305073234</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.52577350647656</v>
+        <v>55.58869049124354</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.53071283140797</v>
+        <v>27.09023514542863</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.53054299870995</v>
+        <v>29.97929084811071</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.53053922778545</v>
+        <v>30.07974852315471</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.53030229621457</v>
+        <v>29.97455944906057</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.53030639146204</v>
+        <v>31.4280677582104</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.53030319482448</v>
+        <v>31.57854716654447</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.53062297448194</v>
+        <v>29.14045190950891</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.53062611048699</v>
+        <v>30.55217595754628</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.53062341739773</v>
+        <v>30.70920926846959</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.52937965243814</v>
+        <v>32.40441538186025</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.52941213953555</v>
+        <v>33.96221211701322</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.52940975848112</v>
+        <v>34.02119220332381</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.52930698312425</v>
+        <v>32.53468263922038</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.52932481005243</v>
+        <v>35.19038263957203</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.52932179901089</v>
+        <v>35.26423867813158</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.52900307696996</v>
+        <v>31.56138329617003</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.52925563061097</v>
+        <v>37.38487479728014</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.529250499448</v>
+        <v>37.6439245504351</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.52898174884491</v>
+        <v>38.29628725488082</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.5289782441127</v>
+        <v>42.2115850309291</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.52897384478099</v>
+        <v>42.49027916803936</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.52946427999849</v>
+        <v>36.61440725966215</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.5294230817969</v>
+        <v>40.41598650774571</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.52942014520752</v>
+        <v>40.65583255630921</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.5271469165588</v>
+        <v>44.7568194489296</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.52720413111524</v>
+        <v>47.60393549801327</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.52719866075741</v>
+        <v>47.74786603865459</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.52703565843457</v>
+        <v>44.91593363315726</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.52707511602109</v>
+        <v>49.44321251888495</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.52865701477073</v>
+        <v>35.81587190271208</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.52861264377934</v>
+        <v>41.80551295321571</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.52867471776792</v>
+        <v>42.09081320385829</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.52826971873386</v>
+        <v>44.34925123390191</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.52826571372571</v>
+        <v>48.23892793553797</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.5282588297219</v>
+        <v>48.47206222585675</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.52884851027598</v>
+        <v>42.18098143219205</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.52882769030807</v>
+        <v>45.9536145021486</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.52880801969558</v>
+        <v>46.12861722611559</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.52666152062834</v>
+        <v>51.34366881090894</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.52670274293675</v>
+        <v>54.12837732594491</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.52672639112476</v>
+        <v>54.27222224197695</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.52655783828499</v>
+        <v>51.44978024200682</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.52659193873628</v>
+        <v>55.86885418513505</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.52659030331549</v>
+        <v>56.0927252180997</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.52743430704467</v>
+        <v>21.10223012293014</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.52740889324943</v>
+        <v>24.03226411084745</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.52862901423331</v>
+        <v>24.18835800997472</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.52873502796322</v>
+        <v>22.73406568871622</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.52869606762188</v>
+        <v>24.17139756443616</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.52869169094885</v>
+        <v>24.34029566787708</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.529078162544</v>
+        <v>22.28033049694974</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.52902317110628</v>
+        <v>23.71615505788268</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.52901874594266</v>
+        <v>23.91314248629262</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.52565500153984</v>
+        <v>24.82855626739438</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.5256962901738</v>
+        <v>26.36879199821315</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.52570136279045</v>
+        <v>26.46987874909037</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.52542253760398</v>
+        <v>25.2262338916746</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.52549665017941</v>
+        <v>27.85344315505396</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.52550423646155</v>
+        <v>28.00330436289565</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.52557712133578</v>
+        <v>24.45414144796284</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.52564549255932</v>
+        <v>30.38032949940569</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.52565396436628</v>
+        <v>30.83993331144766</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.52583620254165</v>
+        <v>29.90608783698485</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.52574998689003</v>
+        <v>33.74371260390577</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.52574230308125</v>
+        <v>34.12862682727931</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.52643204923785</v>
+        <v>28.4497561542908</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.52632709904853</v>
+        <v>32.15012493697184</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.52631980121076</v>
+        <v>32.52845474627635</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.52147766274913</v>
+        <v>36.51871008342599</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.52207025221882</v>
+        <v>39.33881788224412</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.52208506802749</v>
+        <v>39.59888978352637</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.52163186283887</v>
+        <v>37.16169111948957</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.52178221452034</v>
+        <v>41.66300978246763</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.52182388143888</v>
+        <v>42.0712012478657</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.52514769409885</v>
+        <v>29.29503494259397</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.5245759212064</v>
+        <v>35.34804540129017</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.5245700785012</v>
+        <v>35.79006605077869</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.5241826636167</v>
+        <v>36.77220847883899</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.52415992566689</v>
+        <v>40.55847136927049</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.52415698158171</v>
+        <v>40.89303779585609</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.52532183235213</v>
+        <v>34.79478230133226</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.52506072555102</v>
+        <v>38.44570092733768</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.52506302190381</v>
+        <v>38.74293817250444</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.52063112061806</v>
+        <v>43.9824522236225</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.52143518675133</v>
+        <v>46.72055155160656</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.52144383021504</v>
+        <v>46.96448070856464</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.52092669908749</v>
+        <v>44.56391531080852</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.52111758820935</v>
+        <v>48.92471182882149</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.52114730456168</v>
+        <v>49.31762928364751</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.52790491268114</v>
+        <v>21.36829352434653</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.52719718073478</v>
+        <v>24.31597659045557</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.52718635402352</v>
+        <v>24.48042832907658</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.52659985579591</v>
+        <v>23.21662607263454</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.52659837447443</v>
+        <v>24.65513747528608</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.52659535855165</v>
+        <v>24.83233986595681</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.52739094102192</v>
+        <v>22.71091430584079</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.52738220532498</v>
+        <v>24.14299427030318</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.52737997074238</v>
+        <v>24.34973896144081</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.52443518266225</v>
+        <v>25.39229131276028</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.52445297425649</v>
+        <v>26.93723842400229</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.52445394734188</v>
+        <v>27.04251260504557</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.5242047369228</v>
+        <v>25.79377365453496</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.52424342611387</v>
+        <v>28.43042636341592</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.52424616235842</v>
+        <v>28.58616188032214</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.52381208148351</v>
+        <v>24.09885782005216</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.52429426990016</v>
+        <v>30.05911740265582</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.52429099051626</v>
+        <v>30.51998475776184</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.52347421203544</v>
+        <v>29.55799521050932</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.52345237884586</v>
+        <v>33.41855086292909</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.52344140161787</v>
+        <v>33.81390021839351</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.52467949917792</v>
+        <v>28.11766619960427</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.52457949750207</v>
+        <v>31.83410596119676</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.52457776289809</v>
+        <v>32.22305531910158</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.51958479996674</v>
+        <v>36.20894380669386</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.51961459811742</v>
+        <v>39.04522201653258</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.51961272321186</v>
+        <v>39.31110308874624</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.51919313594018</v>
+        <v>36.87140055532029</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.51927661163728</v>
+        <v>41.39846610526521</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.51927504424219</v>
+        <v>41.81473751519518</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.52387384125624</v>
+        <v>29.24321803996278</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.52388112971463</v>
+        <v>35.33710300134787</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.52389014323651</v>
+        <v>35.77615814787064</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.52382041068437</v>
+        <v>36.76755630501965</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.52367072156779</v>
+        <v>40.58129476582619</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.52366142024388</v>
+        <v>40.92404217438929</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.52470644590423</v>
+        <v>34.78572588341839</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.52456610245972</v>
+        <v>38.45824978570823</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.52455867119148</v>
+        <v>38.76468788142454</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.51990250053823</v>
+        <v>44.03587867842689</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.51999771740635</v>
+        <v>46.7907555177139</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.52000105673653</v>
+        <v>47.03900144383307</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.51945559826872</v>
+        <v>44.62501275923964</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.51966267334075</v>
+        <v>49.01153901417202</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.51966819663426</v>
+        <v>49.41021003476619</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.53021610828138</v>
+        <v>23.71436846909129</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.53024173500662</v>
+        <v>27.36914037032365</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.5297692026873</v>
+        <v>27.52447300482536</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.52944749717206</v>
+        <v>26.6950037600392</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.52945070468368</v>
+        <v>28.51371229280921</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.52945173303872</v>
+        <v>28.70415433970919</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.52987534462155</v>
+        <v>25.87424370187328</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.52986501358795</v>
+        <v>27.66198006653354</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.5298765350539</v>
+        <v>27.87297435410282</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.52823276426195</v>
+        <v>29.4884055589672</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.52826506818977</v>
+        <v>31.44001439815506</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.52826912522381</v>
+        <v>31.52749639658499</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.52812633765427</v>
+        <v>29.74012252183255</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.52815907403625</v>
+        <v>33.06891355613582</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.52815685847726</v>
+        <v>33.18708964713313</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.52785462505954</v>
+        <v>31.96354550465171</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.52782891051387</v>
+        <v>39.41637037262922</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.52833368824266</v>
+        <v>39.82908653929371</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.52804059441748</v>
+        <v>40.40834831523679</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.52806025900828</v>
+        <v>45.34656235071522</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.52803393869458</v>
+        <v>45.7242689964618</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.52864776608246</v>
+        <v>38.24344025491607</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.52862454585038</v>
+        <v>43.02208803155074</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.52856655213709</v>
+        <v>43.37597805121609</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.52615981811327</v>
+        <v>48.63967031915406</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.52551265394627</v>
+        <v>52.24797097549613</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.52554156491417</v>
+        <v>52.47313156234025</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.5253239524777</v>
+        <v>48.86078010955755</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.52538488608597</v>
+        <v>54.60759668021743</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.52537952162957</v>
+        <v>54.94876996025108</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.52744179573606</v>
+        <v>37.12032247621445</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.52737239173415</v>
+        <v>44.75090016571095</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.52744496353966</v>
+        <v>45.16569251830734</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.52694115058983</v>
+        <v>47.83263122085005</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.5269387249593</v>
+        <v>52.71719855216475</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.52692080910577</v>
+        <v>53.03128442486552</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.52770166667079</v>
+        <v>45.05863019353806</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.52767085247596</v>
+        <v>49.78188919988639</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.5276179301363</v>
+        <v>50.04578827459399</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.5248415632505</v>
+        <v>56.75414269451605</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.52490967845668</v>
+        <v>60.2700039318992</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.52496841544126</v>
+        <v>60.48219287114041</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.52474047766983</v>
+        <v>56.93539318489147</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.52479635705487</v>
+        <v>62.52393596470813</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.5247975018274</v>
+        <v>62.86056228845182</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.52846188213204</v>
+        <v>22.89154725767585</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.5284383509258</v>
+        <v>26.12694327905304</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.52948443975338</v>
+        <v>26.28869396352835</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.52960169916587</v>
+        <v>25.20599577901452</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.52956749728472</v>
+        <v>26.7985970329335</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.52956413298698</v>
+        <v>26.97930603722831</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.52986020878211</v>
+        <v>24.56806772939057</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.529812367544</v>
+        <v>26.15755380343843</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.52980890128993</v>
+        <v>26.36531214196198</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.52704456040422</v>
+        <v>27.5449302645622</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.52707990930202</v>
+        <v>29.2434424341764</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.52708407033711</v>
+        <v>29.34423830207839</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.52685374534597</v>
+        <v>27.83193581144619</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.52691723527185</v>
+        <v>30.72713262170536</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.52692343082969</v>
+        <v>30.8733721307974</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.52701020702059</v>
+        <v>25.85311785824336</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.52706877600221</v>
+        <v>32.32262482392171</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.52707571992644</v>
+        <v>32.77762120164206</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.5272769001685</v>
+        <v>32.1305309814973</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.52720184070547</v>
+        <v>36.33893986714016</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.52719573285937</v>
+        <v>36.74523046185691</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.52773419481161</v>
+        <v>30.4841564103659</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.52764306305236</v>
+        <v>34.543255694276</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.52763720178374</v>
+        <v>34.93195364725049</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.52367776508568</v>
+        <v>39.3088858135432</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.52419318298286</v>
+        <v>42.39959747920724</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.52420742336835</v>
+        <v>42.65916123360127</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.52382553918788</v>
+        <v>39.87901937801401</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.52396037029398</v>
+        <v>44.81046121737064</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.52399834386107</v>
+        <v>45.21193075627065</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.52668743011238</v>
+        <v>31.0461811127952</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.52619317474107</v>
+        <v>37.65813666709045</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.52618929398183</v>
+        <v>38.0969354293493</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.52589991732378</v>
+        <v>39.48864933519504</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.52587988769234</v>
+        <v>43.64752443392633</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.52587898035298</v>
+        <v>43.99670535125944</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.52682288624862</v>
+        <v>37.2774560230749</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.52659473249944</v>
+        <v>41.28959563396087</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.52659821870709</v>
+        <v>41.59224940518778</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.52300544686522</v>
+        <v>47.3062975843563</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.52370153940419</v>
+        <v>50.31082613986754</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.52371029848191</v>
+        <v>50.55414436357032</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.5232763764493</v>
+        <v>47.81018668863932</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.52344391294889</v>
+        <v>52.59298534914247</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.52347129155046</v>
+        <v>52.98101061021296</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.52923003544524</v>
+        <v>23.13089797335497</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.52871396771909</v>
+        <v>26.48054884141018</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.52870630529575</v>
+        <v>26.6435785434063</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.52827693629874</v>
+        <v>25.49644837657945</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.5282771995583</v>
+        <v>27.17240242315762</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.52827495436222</v>
+        <v>27.35448921798719</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.52885889682491</v>
+        <v>24.83906666187518</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.52885241024246</v>
+        <v>26.52213275733254</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.52885075733892</v>
+        <v>26.73151436477867</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.5266830058071</v>
+        <v>27.86126373729407</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.52670134100444</v>
+        <v>29.60187891143123</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.52670189699139</v>
+        <v>29.70368859024673</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.52651716327578</v>
+        <v>28.11836026112631</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.52654731707314</v>
+        <v>31.07366928470574</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.52654902507496</v>
+        <v>31.22148580224313</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.52621477350803</v>
+        <v>24.73811663797821</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.52660415606866</v>
+        <v>31.30621172596676</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.52660174831976</v>
+        <v>31.73842290895129</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.52600191116628</v>
+        <v>31.10503461268454</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.52598898687679</v>
+        <v>35.39979997521385</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.52598106351105</v>
+        <v>35.80595385494133</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.52687701370273</v>
+        <v>29.46354075262415</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.52680974831429</v>
+        <v>33.60627351519451</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.52680860867299</v>
+        <v>33.98789015656158</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.52306792951048</v>
+        <v>38.39917961792231</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.52309039931472</v>
+        <v>41.54541796328664</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.52308993017604</v>
+        <v>41.79525053038769</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.52277860196725</v>
+        <v>39.04278178229493</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.52284060842737</v>
+        <v>44.0595260250361</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.52284093790309</v>
+        <v>44.4417503087024</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.52623192567824</v>
+        <v>30.17666922237835</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.52623681438369</v>
+        <v>36.88242424779347</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.52624311206147</v>
+        <v>37.29856751651554</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.52619429033318</v>
+        <v>38.71703670763628</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.52608494012599</v>
+        <v>42.96227312247633</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.526078706154</v>
+        <v>43.30918645150466</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.52684820133306</v>
+        <v>36.4993402242732</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.52674513436098</v>
+        <v>40.59585285037094</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.52673970151699</v>
+        <v>40.89281328547565</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.5232606443975</v>
+        <v>46.64886253790042</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.52333038365902</v>
+        <v>49.70812025994856</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.5233339791886</v>
+        <v>49.94222837903633</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.52292668699256</v>
+        <v>47.21270933767934</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.52307860293208</v>
+        <v>52.07897301625626</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.52308448437859</v>
+        <v>52.44928967645524</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.53019906636068</v>
+        <v>23.47653576429773</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.52934883416801</v>
+        <v>26.93500373259756</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.52934688517327</v>
+        <v>27.10010704253919</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.52897400425375</v>
+        <v>25.85381763881433</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.52898329901098</v>
+        <v>27.58457070138356</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.52898045754371</v>
+        <v>27.76959241218639</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.52946341475234</v>
+        <v>25.1865519678406</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.52946372670114</v>
+        <v>26.92385814666413</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.52946207405217</v>
+        <v>27.1363459935239</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.52762405587635</v>
+        <v>28.23296910465615</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.52764580661184</v>
+        <v>30.03960343333834</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.52764476287292</v>
+        <v>30.14258268116023</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.52748430044161</v>
+        <v>28.44265669131593</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.52752656613207</v>
+        <v>31.51174663352076</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.52752605715475</v>
+        <v>31.66104476894677</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.52731534699117</v>
+        <v>25.86700027391523</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.52792692051634</v>
+        <v>32.66136553958285</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.52793245121176</v>
+        <v>33.10526824812045</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.52764532740196</v>
+        <v>32.56759238323323</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.52764624604968</v>
+        <v>37.02065916333507</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.52764607995921</v>
+        <v>37.42937486045471</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.52831754559528</v>
+        <v>30.82909116290824</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.52820552293494</v>
+        <v>35.13359011657104</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.528208211308</v>
+        <v>35.51425043784356</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.52486312339523</v>
+        <v>40.08322942779673</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.52501868996468</v>
+        <v>43.34517253166374</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.52500649241443</v>
+        <v>43.5932796121395</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.52476947446988</v>
+        <v>40.6583907791288</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.52484069778222</v>
+        <v>45.85859838636671</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.52482659126174</v>
+        <v>46.23755551785202</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.52694650366248</v>
+        <v>31.03763062398024</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.52695177984471</v>
+        <v>37.97632612816795</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.52696898065262</v>
+        <v>38.40821242389599</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.52644348329426</v>
+        <v>39.93983320613973</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.52641314821132</v>
+        <v>44.34172413238098</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.52642226690272</v>
+        <v>44.6887976452843</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.52725538897848</v>
+        <v>37.62755035988619</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.52715652198219</v>
+        <v>41.882857251476</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.52717101468281</v>
+        <v>42.17530198632312</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.52415664025741</v>
+        <v>48.09751997014757</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.52432741289244</v>
+        <v>51.2711529752612</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.52432438605684</v>
+        <v>51.50381003688474</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.52407882772769</v>
+        <v>48.61164184276362</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.52414463645899</v>
+        <v>53.65961936189056</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.52414287584485</v>
+        <v>54.02802477946609</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.52977011261698</v>
+        <v>23.78201619342359</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.53049183202753</v>
+        <v>27.14630926719248</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.53068209283058</v>
+        <v>27.31322669157055</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.53051171802642</v>
+        <v>26.3186929352875</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.53048354307471</v>
+        <v>28.00136670671728</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.53046448631437</v>
+        <v>28.18586901713902</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.53068259400069</v>
+        <v>25.59282710614069</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.53064659668194</v>
+        <v>27.28357365520275</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.53023038888327</v>
+        <v>27.49633326227884</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.52875342971033</v>
+        <v>28.73794209769305</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.52877308901075</v>
+        <v>30.48353207104773</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.52877578084214</v>
+        <v>30.5872751120298</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.52863462592437</v>
+        <v>28.97013749236191</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.52866797414316</v>
+        <v>31.93331815121888</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.52858561957943</v>
+        <v>32.08422227500144</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.52874466111631</v>
+        <v>25.56597980537599</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.52877549969208</v>
+        <v>32.17167971578603</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.52908399717544</v>
+        <v>32.5867489378936</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.52882253434668</v>
+        <v>32.02947597665789</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.52876382544071</v>
+        <v>36.35843400462198</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.52873503536636</v>
+        <v>36.75715347582485</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.52913138652865</v>
+        <v>30.37307821210042</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.52906435946632</v>
+        <v>34.55445848591724</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.52863662877862</v>
+        <v>34.92208660205686</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.5265475506363</v>
+        <v>39.30076037165205</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.52661391811822</v>
+        <v>42.47142977477755</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.52663067085373</v>
+        <v>42.70698242885143</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.52632160195389</v>
+        <v>39.87351325748268</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.52644045884318</v>
+        <v>44.92795182074033</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.52647468527454</v>
+        <v>45.28464122326302</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.52791275992495</v>
+        <v>30.88791610719337</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.52803594122837</v>
+        <v>37.63337175888898</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.52803820958561</v>
+        <v>38.03039460025821</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.52771145899588</v>
+        <v>39.49553775768912</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.52779426829568</v>
+        <v>43.77686038197496</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.5278008293494</v>
+        <v>44.11052796053017</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.52824709115178</v>
+        <v>37.26753922297718</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.52832323804542</v>
+        <v>41.4045337670039</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.52833138907779</v>
+        <v>41.68403703570533</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.52614435910607</v>
+        <v>47.39725935239512</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.52622299409576</v>
+        <v>50.48215504401469</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.52623594125308</v>
+        <v>50.69917020139147</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.52588898166588</v>
+        <v>47.89655257658661</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.52602988057308</v>
+        <v>52.8024525274823</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.52605754292049</v>
+        <v>53.14330598549018</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.52924390721942</v>
+        <v>22.54160198203104</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.52926802714153</v>
+        <v>25.73919413900015</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.52926274853658</v>
+        <v>25.91019619769389</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.52887533319614</v>
+        <v>24.57625043016214</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.52888891460086</v>
+        <v>26.17157028255485</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.52888771205901</v>
+        <v>26.35066240527613</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.52937867289977</v>
+        <v>23.99122449943039</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.52939101089649</v>
+        <v>25.59430632115916</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.52939036306219</v>
+        <v>25.80461188726074</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.52750777393655</v>
+        <v>26.81711436804186</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.52752608174419</v>
+        <v>28.47753628027396</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.52752700501484</v>
+        <v>28.58400852833094</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.52735872339639</v>
+        <v>27.11122529257647</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.52739160281837</v>
+        <v>29.93124534110065</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.52739407354809</v>
+        <v>30.08882802057961</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.52741860097839</v>
+        <v>24.75505589364619</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.52746815822173</v>
+        <v>31.07107464451341</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.52746755701807</v>
+        <v>31.51406510597482</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.52688827353198</v>
+        <v>30.71211929328797</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.52692573871728</v>
+        <v>34.84160564884375</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.52692074937906</v>
+        <v>35.24006984175102</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.52760203667328</v>
+        <v>29.16413136362935</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.52763410040898</v>
+        <v>33.15323272774441</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.52724498352189</v>
+        <v>33.53018263736224</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.52429501728025</v>
+        <v>37.67624353043907</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.5243064935442</v>
+        <v>40.70052756556063</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.52430509359287</v>
+        <v>40.94903676005481</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.52405412512327</v>
+        <v>38.28893298802091</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.52409075363526</v>
+        <v>43.11057892853034</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.5240671896293</v>
+        <v>43.49285731400864</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.52713745902939</v>
+        <v>29.80737875906489</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.52713045053815</v>
+        <v>36.25583383135898</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.52738177326562</v>
+        <v>36.67732623122758</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.52704882742314</v>
+        <v>37.84580216548593</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.52694600236423</v>
+        <v>41.92611824314737</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.52691680644059</v>
+        <v>42.26272457397211</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.52759148527658</v>
+        <v>35.75330893358133</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.52749871256484</v>
+        <v>39.69588503153323</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.52742364270954</v>
+        <v>39.98489246220403</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.52452325173852</v>
+        <v>45.42047501907722</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.52456847110726</v>
+        <v>48.36090232642759</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.52457086094794</v>
+        <v>48.58977938568708</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.52427157829473</v>
+        <v>45.96721039563638</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.52436907417036</v>
+        <v>50.64423596083807</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.5242224519947</v>
+        <v>51.00760005229724</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.52964105862478</v>
+        <v>23.37116272718968</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.52966033146991</v>
+        <v>27.02484352037285</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.52966101987543</v>
+        <v>27.18622711585819</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.52930743728408</v>
+        <v>26.46415777403849</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.5293195321718</v>
+        <v>28.28197355544584</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.52931903355717</v>
+        <v>28.47303676218182</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.52975323034142</v>
+        <v>25.62158515760105</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.52976386393667</v>
+        <v>27.40543057104138</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.52976407672731</v>
+        <v>27.61859585529862</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.5280734883793</v>
+        <v>29.32555064745246</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.52809212875504</v>
+        <v>31.27269308387991</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.52809258128222</v>
+        <v>31.35967470071655</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.52794271513119</v>
+        <v>29.62024695832699</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.52797679176703</v>
+        <v>32.94095872595756</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.52797802010289</v>
+        <v>33.0580705427294</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.52819554163064</v>
+        <v>31.32052471130098</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.52828802238874</v>
+        <v>38.7704207530965</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.52829263178072</v>
+        <v>39.1927256344088</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.52791585807014</v>
+        <v>39.75223003895545</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.52798194566867</v>
+        <v>44.69741471663917</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.52798331648841</v>
+        <v>45.08584741159467</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.52846115505192</v>
+        <v>37.61450329359338</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.5285229472096</v>
+        <v>42.39488077023071</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.5280140216299</v>
+        <v>42.75938116468723</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.52549283197905</v>
+        <v>47.99659035839414</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.52552362974332</v>
+        <v>51.60886911743522</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.52552054769977</v>
+        <v>51.84042614033203</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.52528992865579</v>
+        <v>48.25340927933594</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.52534610852743</v>
+        <v>54.00615331292883</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.52534509346725</v>
+        <v>54.35686946714378</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.52733622632546</v>
+        <v>36.76759579270546</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.52736765818766</v>
+        <v>44.39731951815756</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.52738330112184</v>
+        <v>44.82137178292366</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.52680786500335</v>
+        <v>47.48993978645981</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.5268293809508</v>
+        <v>52.38231010596299</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.5268417991033</v>
+        <v>52.70665541651097</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.52752820842823</v>
+        <v>44.72846938063741</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.52754601458762</v>
+        <v>49.4545925358623</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.52756064517375</v>
+        <v>49.72899029020887</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.52484652218733</v>
+        <v>56.43313169422633</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.52487500556373</v>
+        <v>59.95290420189995</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.52487918478003</v>
+        <v>60.1723101594576</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.52462960011711</v>
+        <v>56.63528791135127</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.5246857335042</v>
+        <v>62.22941258852693</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.52469404486241</v>
+        <v>62.57729856233173</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.53057920794692</v>
+        <v>24.21089890934227</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.53078324658118</v>
+        <v>27.602174332682</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.53078087287827</v>
+        <v>27.75757820144294</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.53061640449366</v>
+        <v>26.7134508255934</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.53057399382666</v>
+        <v>28.42911840674678</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.53057225794335</v>
+        <v>28.60852941951049</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.53078253767598</v>
+        <v>26.00667579681948</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.5303597639157</v>
+        <v>27.73346504530846</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.53036075140107</v>
+        <v>27.93727962015349</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.52895343216893</v>
+        <v>29.07899676861498</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.5289715730526</v>
+        <v>30.83708858216902</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.52897412715114</v>
+        <v>30.93281274011076</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.52884008930819</v>
+        <v>29.2614803745073</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.52879062780621</v>
+        <v>32.23983199367046</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.52879371110912</v>
+        <v>32.37666797745668</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.52893029727765</v>
+        <v>25.57344830400321</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.52925549091741</v>
+        <v>32.15363888517541</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.52925135574585</v>
+        <v>32.54698369692641</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.52899598165312</v>
+        <v>32.0816922247925</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.52891820840092</v>
+        <v>36.41858513834863</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.52891483257921</v>
+        <v>36.80813074629121</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.5292983946198</v>
+        <v>30.42806033849726</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.52886692103098</v>
+        <v>34.61919921379156</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.5288069147696</v>
+        <v>34.97239782882406</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.526879372054</v>
+        <v>39.34173745873005</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.52692734713995</v>
+        <v>42.5092725308834</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.5269386801149</v>
+        <v>42.73238286595402</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.5266729160312</v>
+        <v>39.91315738219996</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.52676642256476</v>
+        <v>44.95890244077822</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.52695374773491</v>
+        <v>45.29375814188039</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.52821381995741</v>
+        <v>30.80322093216592</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.52831855071256</v>
+        <v>37.52012506286371</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.52851362677285</v>
+        <v>37.90415008081096</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.52801700917745</v>
+        <v>39.43129938655606</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.52807552733636</v>
+        <v>43.72191867211891</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.52797915159194</v>
+        <v>44.04891890769009</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.52852525821582</v>
+        <v>37.21362981942072</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.52858167472284</v>
+        <v>41.36138461699755</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.52857227760825</v>
+        <v>41.63191267239678</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.52649612528683</v>
+        <v>47.30206082148375</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.52655257055541</v>
+        <v>50.38557546962016</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.52656656529402</v>
+        <v>50.5948641167104</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.52626281697767</v>
+        <v>47.79838835776485</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.52637280161455</v>
+        <v>52.69846900127484</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.52463701687693</v>
+        <v>53.02597344158345</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.53060071416434</v>
+        <v>29.50036875982654</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.53060822930827</v>
+        <v>32.26748370789773</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.53060925085964</v>
+        <v>32.3646329468654</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.53036130634758</v>
+        <v>32.74048996077092</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.53036340895326</v>
+        <v>34.13810210962422</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.53035869903976</v>
+        <v>34.28607574588246</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.53068257241859</v>
+        <v>31.80134419914578</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.53068465350339</v>
+        <v>33.15859935984183</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.53068874836735</v>
+        <v>33.31054617739267</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.52947612163038</v>
+        <v>35.12858950804114</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.5294813024642</v>
+        <v>36.61967039667902</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.52948360914145</v>
+        <v>36.67699805781326</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.52937768591539</v>
+        <v>35.13328953496336</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.52938821663832</v>
+        <v>37.67341657742933</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.52958343062215</v>
+        <v>37.74483237894584</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.52926829155711</v>
+        <v>32.25757849913897</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.52928521895302</v>
+        <v>37.74309914614006</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.52930327385684</v>
+        <v>37.98030464975244</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.52892562005413</v>
+        <v>38.81233663351428</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.52893351302743</v>
+        <v>42.52042948066843</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.52890391952372</v>
+        <v>42.79211054340382</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.5294100930029</v>
+        <v>37.18775274242655</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.52924104687817</v>
+        <v>40.79049241774865</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.52923788265592</v>
+        <v>41.01704943716435</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.52728875384408</v>
+        <v>44.90742776470582</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.527291455566</v>
+        <v>47.60213865668003</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.52728756427807</v>
+        <v>47.73608912193365</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.52713560588666</v>
+        <v>45.00302277524406</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.52714543450345</v>
+        <v>49.28635805878248</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.52714046726886</v>
+        <v>49.4771872707764</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.52888537466587</v>
+        <v>36.33696125692499</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.52891545028512</v>
+        <v>41.98672925481479</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.52891580206387</v>
+        <v>42.24869357555553</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.52855109446809</v>
+        <v>44.58436431426551</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.52851494469743</v>
+        <v>48.27377646763129</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.52851183194672</v>
+        <v>48.49825376772946</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.52905727070766</v>
+        <v>42.49834912609529</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.52903999095145</v>
+        <v>46.07842244121293</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.52903621499681</v>
+        <v>46.24142067009394</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.52702316847762</v>
+        <v>51.17985975573349</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.5270354527466</v>
+        <v>53.81921146460314</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.5270310477733</v>
+        <v>53.95252012053309</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.5268697255922</v>
+        <v>51.21918619654627</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.52687920187389</v>
+        <v>55.40598123824233</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.52687378215982</v>
+        <v>55.61136574775033</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.53154666384984</v>
+        <v>29.15107925282839</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.53155042222594</v>
+        <v>29.47379297894182</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.53155049932175</v>
+        <v>29.55462102566002</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.53139861843182</v>
+        <v>30.38350717651277</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.53139980295667</v>
+        <v>30.49501569067707</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.53139984114669</v>
+        <v>30.58357391686616</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.53159427327248</v>
+        <v>29.9942589932617</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.53159532684406</v>
+        <v>30.10383608737783</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.53159537505162</v>
+        <v>30.16490189959259</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.53086437412901</v>
+        <v>31.16741544341111</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.53086757126579</v>
+        <v>31.34215148015377</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.53086760070085</v>
+        <v>31.41989277052532</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.53080743441754</v>
+        <v>31.37105328487348</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.53081361136462</v>
+        <v>31.68300395989692</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.53081363147105</v>
+        <v>31.81096540284593</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.53079596761792</v>
+        <v>34.60506880771284</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.53080679156581</v>
+        <v>35.37823594672894</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.53080694268239</v>
+        <v>35.86144338037001</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.53059355579574</v>
+        <v>37.94525825460072</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.53059746521384</v>
+        <v>38.41289674023378</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.53059829141256</v>
+        <v>38.70477152129949</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.53087716637268</v>
+        <v>37.01721842851249</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.53088076936861</v>
+        <v>37.47686631595245</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.5308807175249</v>
+        <v>37.78388188804313</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.52980722001935</v>
+        <v>39.1447598343149</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.52981487893633</v>
+        <v>39.4664658247239</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.52981378994999</v>
+        <v>39.7436016026462</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.52971596867884</v>
+        <v>39.01658417584872</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.52972794449828</v>
+        <v>39.52391828344903</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.52972866399164</v>
+        <v>39.9873777157916</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.53054530767992</v>
+        <v>35.3961045612159</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.53055588461368</v>
+        <v>36.22153696327723</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.53055734831009</v>
+        <v>36.59801451221741</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.53031808829936</v>
+        <v>38.85826340272062</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.53032484933248</v>
+        <v>39.37164171248953</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.53032429426023</v>
+        <v>39.59371519559578</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.53063776755329</v>
+        <v>37.89614497942053</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.5306433302308</v>
+        <v>38.39429625697656</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.53064280598708</v>
+        <v>38.62529254929973</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.52944261500751</v>
+        <v>40.12500745159203</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.52945165862516</v>
+        <v>40.4737489961275</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.52945038238535</v>
+        <v>40.7005204864228</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.52934144360691</v>
+        <v>39.96418338046811</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.52935562832636</v>
+        <v>40.51212533442364</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.52935624010116</v>
+        <v>40.89527699267322</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.53060919270277</v>
+        <v>25.65156961931146</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.53067279193219</v>
+        <v>29.04894229258083</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.53067200004617</v>
+        <v>29.18943226024481</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.53044765197017</v>
+        <v>28.56230932689724</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.53043606804874</v>
+        <v>30.2976587443448</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.53043503143366</v>
+        <v>30.4828173100003</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.53073328897713</v>
+        <v>27.73063917190181</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.53061927933473</v>
+        <v>29.45608167284768</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.53061979872409</v>
+        <v>29.65809083864355</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.5294120348175</v>
+        <v>31.10534681923316</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.52941836689473</v>
+        <v>32.88345170113791</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.52939962071274</v>
+        <v>32.96913293838371</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.52930326317328</v>
+        <v>31.24239801356682</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.52931787058072</v>
+        <v>34.25396937455118</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.52934355930011</v>
+        <v>34.36997145764141</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.52916878759983</v>
+        <v>28.22947040966941</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.52915357226616</v>
+        <v>34.84426232683676</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.52914881000972</v>
+        <v>35.17539209926782</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.5287835670117</v>
+        <v>35.20244044008223</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.52876143753872</v>
+        <v>39.63362886363223</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.52870794213163</v>
+        <v>39.98782814012613</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.52930843793029</v>
+        <v>33.47385726702856</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.52926938117763</v>
+        <v>37.76789111087047</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.52926250382361</v>
+        <v>38.07597002886151</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.52737415409451</v>
+        <v>42.46906096533623</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.52738637306868</v>
+        <v>45.68165147649846</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.52738990865162</v>
+        <v>45.86637096178563</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.52712831311343</v>
+        <v>42.85236944609731</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.52719042724434</v>
+        <v>47.95880670537369</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.52719909863097</v>
+        <v>48.22781901206804</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.52874720555786</v>
+        <v>33.31044823087626</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.52874997273355</v>
+        <v>40.07863870412447</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.52874526087682</v>
+        <v>40.42116229355489</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.52820293455035</v>
+        <v>42.34737936978315</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.5282338162291</v>
+        <v>46.7387769316729</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.52823536226977</v>
+        <v>47.03095554995887</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.52893428940644</v>
+        <v>40.06102567282147</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.52889104880481</v>
+        <v>44.31510487883681</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.52888258723381</v>
+        <v>44.5461669595559</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.52677600520559</v>
+        <v>50.20120875620519</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.52678818983531</v>
+        <v>53.33571300427494</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.5267883002442</v>
+        <v>53.51346078691118</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.52599763416231</v>
+        <v>50.5095441243174</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.52602377113293</v>
+        <v>55.48064946901879</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.5260267137621</v>
+        <v>55.75578378476648</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.53031918939505</v>
+        <v>25.08284623948861</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.53032052503121</v>
+        <v>27.94604060194026</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.53031941819099</v>
+        <v>28.06712310001997</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.53002261557571</v>
+        <v>27.77984885331201</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.53003443963511</v>
+        <v>29.21498927461473</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.53003633595735</v>
+        <v>29.37043209140421</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.53043060944952</v>
+        <v>27.02761784989568</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.53041621068986</v>
+        <v>28.41969241380972</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.53041479934188</v>
+        <v>28.58913027424511</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.52904415462561</v>
+        <v>30.21232746360705</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.52905242921061</v>
+        <v>31.74392651040137</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.52905367471691</v>
+        <v>31.8099463560068</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.5292063945327</v>
+        <v>30.47225322610799</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.52923522443501</v>
+        <v>33.08266908527725</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.52923713934369</v>
+        <v>33.16878604967971</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.52888944759162</v>
+        <v>29.80145716185612</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.52888392319548</v>
+        <v>35.6146054620669</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.52887962871075</v>
+        <v>35.9046615446975</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.5283976625128</v>
+        <v>36.27178611388312</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.52842591842635</v>
+        <v>40.17536338775615</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.52804031460255</v>
+        <v>40.48106255595914</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.5287046871121</v>
+        <v>34.68008927554866</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.52866997000399</v>
+        <v>38.46087738371043</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.52866739466512</v>
+        <v>38.73240118508514</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.52636710483286</v>
+        <v>42.70903362146326</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.5263737302134</v>
+        <v>45.55334961423499</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.52638026761167</v>
+        <v>45.7155595452157</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.5261811475184</v>
+        <v>42.96200958601897</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.52622107299896</v>
+        <v>47.48729868652835</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.52618831781118</v>
+        <v>47.72390300921302</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.52846213782062</v>
+        <v>34.49141158100358</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.52842680483476</v>
+        <v>40.47042169185202</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.5284276854152</v>
+        <v>40.77418453199035</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.52801476486136</v>
+        <v>42.81553089695117</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.5279694675141</v>
+        <v>46.69268691796216</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.52781230979724</v>
+        <v>46.9474035073283</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.52851031862264</v>
+        <v>40.71050328072242</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.52846412421566</v>
+        <v>44.46325405761574</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.52846293484578</v>
+        <v>44.66465707149164</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.52608760953101</v>
+        <v>49.81197876808628</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.52610821407236</v>
+        <v>52.5913306699475</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.52608721103822</v>
+        <v>52.74944595837246</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.52586523049013</v>
+        <v>49.99616496547306</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.52616563435005</v>
+        <v>54.40832429825127</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.52616803863745</v>
+        <v>54.65388326039522</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.5315527649668</v>
+        <v>29.02752827444627</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.5315514170058</v>
+        <v>29.33897859284123</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.53155145220059</v>
+        <v>29.42053420181592</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.53140564719741</v>
+        <v>30.2292937975945</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.53140864467407</v>
+        <v>30.33594355465953</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.53140865496806</v>
+        <v>30.42424807304145</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.53160016544601</v>
+        <v>29.84831714504489</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.53159460933577</v>
+        <v>29.95338422520449</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.53159468179928</v>
+        <v>30.01428564871777</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.53087455991983</v>
+        <v>31.00682228852579</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.53087718390411</v>
+        <v>31.17484954413001</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.53087721805818</v>
+        <v>31.25295017516558</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.53081844357712</v>
+        <v>31.21914838576189</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.53096216760116</v>
+        <v>31.51929379454716</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.53096296776273</v>
+        <v>31.64802630339068</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.5308164520023</v>
+        <v>34.37731320603428</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.53084606989441</v>
+        <v>35.12760549292245</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.53084496822144</v>
+        <v>35.61362045309939</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.53061884980051</v>
+        <v>37.66136958047029</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.53060737103296</v>
+        <v>38.11444579762502</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.53060849514853</v>
+        <v>38.408150435568</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.53089552447049</v>
+        <v>36.74814094380178</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.53092178709099</v>
+        <v>37.19352881301114</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.53091886554973</v>
+        <v>37.50251510414886</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.5298296429517</v>
+        <v>38.84010241240262</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.52983822661059</v>
+        <v>39.15077833390513</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.52983659476442</v>
+        <v>39.42967814520696</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.52973897495106</v>
+        <v>38.72540475596872</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.52973446081302</v>
+        <v>39.21504516931616</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.52973600379163</v>
+        <v>39.68145340512121</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.5305643531391</v>
+        <v>35.18441537835554</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.53060204934528</v>
+        <v>35.98702106570828</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.53060104492105</v>
+        <v>36.36541873674962</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.53034155655921</v>
+        <v>38.58943852878653</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.53032600501531</v>
+        <v>39.08904527939551</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.5303259496575</v>
+        <v>39.31273559399385</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.53065799096093</v>
+        <v>37.64238286490171</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.53069286319886</v>
+        <v>38.12719368603952</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.5306899156319</v>
+        <v>38.35978543052927</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.52946636676365</v>
+        <v>39.83520877945065</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.52947601477098</v>
+        <v>40.17340196476029</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.52947420673666</v>
+        <v>40.40164801440136</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.52936580441279</v>
+        <v>39.68648803371606</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.52940390831033</v>
+        <v>40.21743710199009</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.5294120293922</v>
+        <v>40.60302379400601</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.53045631120695</v>
+        <v>24.0477546103294</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.53044365958559</v>
+        <v>27.60273731929054</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.53043601982563</v>
+        <v>27.76952851673963</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>29.53020542175212</v>
+        <v>27.20288993315283</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.53018620156147</v>
+        <v>28.97174659708342</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.52992501024239</v>
+        <v>29.16476725910566</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.53029658053065</v>
+        <v>26.32774701934197</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.5302907572439</v>
+        <v>28.06706059495909</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.53029283226957</v>
+        <v>28.28400568799634</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.52890548926938</v>
+        <v>30.02355215254232</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.52891741309649</v>
+        <v>31.9087346648508</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>29.52887845348312</v>
+        <v>31.99928827570671</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.5287594161665</v>
+        <v>30.29431165131547</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.52878764321445</v>
+        <v>33.50716101461811</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.52884631856814</v>
+        <v>33.6306269014603</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.52876150292845</v>
+        <v>29.8105991949168</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.52873275101302</v>
+        <v>36.98781758668999</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.52872572364325</v>
+        <v>37.39896509264386</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.52834584020142</v>
+        <v>37.65836369088066</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.52830519926528</v>
+        <v>42.41917082549383</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.52821420995683</v>
+        <v>42.81293822993188</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.52887684556274</v>
+        <v>35.67387170965731</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.52880853796884</v>
+        <v>40.27587207474653</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.52879773355042</v>
+        <v>40.63977734287067</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.52675977856332</v>
+        <v>45.60166458458852</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>29.52678540566803</v>
+        <v>49.07920317669856</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.52678951125198</v>
+        <v>49.30859648239061</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.52647979075991</v>
+        <v>45.93529974255969</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.52659283353312</v>
+        <v>51.47339311778488</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.52660504854883</v>
+        <v>51.81866268339767</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.52828352534901</v>
+        <v>35.35263923189122</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.52828996789374</v>
+        <v>42.70634223140702</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.52828228056776</v>
+        <v>43.11631111048011</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.5276418731866</v>
+        <v>45.45522648729194</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.52770307158223</v>
+        <v>50.16654240530168</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.52770590111943</v>
+        <v>50.49500526835034</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.52850516653734</v>
+        <v>42.85660292435277</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.52843035873048</v>
+        <v>47.40830884355085</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.52841758630615</v>
+        <v>47.6823626176139</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.52614425260713</v>
+        <v>54.07796851763404</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.52617180741941</v>
+        <v>57.4660617488815</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.52617132983843</v>
+        <v>57.68239581602963</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>29.52513644905975</v>
+        <v>54.34314465008012</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.52518674537385</v>
+        <v>59.72750732453635</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.52519796970705</v>
+        <v>60.0683406177742</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>29.53019615960379</v>
+        <v>25.89946712358852</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.53019895931985</v>
+        <v>29.43126716938216</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.53019785772432</v>
+        <v>29.57330059835906</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.52989312535094</v>
+        <v>29.06472367663535</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.52990934429353</v>
+        <v>30.8572600551264</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.52991111454278</v>
+        <v>31.0454200797229</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.53032430141439</v>
+        <v>28.17104517986742</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.53030699254705</v>
+        <v>29.9474433028457</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.53030529988066</v>
+        <v>30.15213402235219</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.52886869214399</v>
+        <v>31.74383822430344</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.52887911511919</v>
+        <v>33.6027683341669</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.52888001811894</v>
+        <v>33.68775018244204</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.52918515398624</v>
+        <v>31.86956177607157</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.52921831418088</v>
+        <v>35.02386426836734</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.52922282695399</v>
+        <v>35.13775114589378</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.52880214035275</v>
+        <v>29.4231882448778</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.52879667041353</v>
+        <v>36.36142037488209</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.52879099270454</v>
+        <v>36.70690375170143</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.52829362630802</v>
+        <v>36.9629794087865</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.52832810275861</v>
+        <v>41.60232619588897</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.52766167134147</v>
+        <v>41.96598578679553</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.52839432629241</v>
+        <v>35.08600144226516</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.52835658149959</v>
+        <v>39.57946276174199</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.52835650491565</v>
+        <v>39.89852839321284</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.52579685645227</v>
+        <v>44.59627407306848</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.52580845216677</v>
+        <v>47.96831130455089</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.52583234919949</v>
+        <v>48.16061843413637</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.52561204923827</v>
+        <v>44.92552718794038</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.52566282290201</v>
+        <v>50.28855697568218</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.52560776249237</v>
+        <v>50.56971791172572</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.52837300145701</v>
+        <v>34.64281589560375</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.52832882800947</v>
+        <v>41.74626496840902</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.52833947286764</v>
+        <v>42.10359056152124</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.52790760924066</v>
+        <v>44.33530048839796</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.5278508782741</v>
+        <v>48.93415218258214</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.52749361933098</v>
+        <v>49.2350972947701</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.52825960428282</v>
+        <v>41.87500786441345</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.52820447913779</v>
+        <v>46.32759887787509</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.52820798855156</v>
+        <v>46.56622385994356</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.52554660254477</v>
+        <v>52.59372865089651</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.52557631779841</v>
+        <v>55.88440249928756</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.52554761441229</v>
+        <v>56.06957366937992</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.52529102176851</v>
+        <v>52.85311396667888</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.52619230651566</v>
+        <v>58.0750772479689</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>29.52619793299216</v>
+        <v>58.36247545561535</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.091</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.324</v>
+        <v>22.51</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.197</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.724</v>
+        <v>22.095</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.296</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.341</v>
+        <v>21.088</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27.24703021489995</v>
+        <v>6.093208677853056</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.1508925905553</v>
+        <v>32.15646385204803</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.25663733513516</v>
+        <v>39.60794132857581</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30.34272242739738</v>
+        <v>16.01588559102896</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>31.80235541456879</v>
+        <v>25.35491023784431</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.95402736091597</v>
+        <v>28.95855253599365</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.46069553836369</v>
+        <v>22.72339556677395</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.87582631701155</v>
+        <v>29.67525908651925</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.03486982715353</v>
+        <v>32.81749115594749</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.84771331189378</v>
+        <v>33.28684773009292</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.40956449906174</v>
+        <v>39.50637197144778</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.46928695153206</v>
+        <v>41.50496887298749</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32.98908792470313</v>
+        <v>23.34870798130368</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35.65152019716034</v>
+        <v>39.12915891253402</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.72655428489669</v>
+        <v>43.3877609022033</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>30.97949538036798</v>
+        <v>10.56570490952998</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.8054952721442</v>
+        <v>36.63167056405126</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.07198869895763</v>
+        <v>44.08389664962857</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>37.71234872260491</v>
+        <v>20.48837132462717</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>41.63484769796943</v>
+        <v>29.82934429021697</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>41.92749906964438</v>
+        <v>33.4334094371132</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36.05318185446676</v>
+        <v>27.19722640373487</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>39.85708744100491</v>
+        <v>34.15056721066031</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>40.10939534160965</v>
+        <v>37.29313701245241</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>44.19441119113046</v>
+        <v>37.76279383100183</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>47.0473783173901</v>
+        <v>43.98326497957061</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>47.1991801973449</v>
+        <v>45.98213157502147</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>44.38693975991285</v>
+        <v>27.82375833596399</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>48.92375828753065</v>
+        <v>43.6062340373399</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>49.14370237237706</v>
+        <v>47.86552359464082</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.56226706339481</v>
+        <v>18.02554415053504</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.55881074911593</v>
+        <v>44.09126354393703</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41.84887680353807</v>
+        <v>51.54355618874882</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>44.13256491981697</v>
+        <v>27.94846236005691</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48.03145864903412</v>
+        <v>37.28962996839692</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>48.27679234277079</v>
+        <v>40.89385859651946</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.96551743250028</v>
+        <v>34.65757341235047</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>45.74244358254307</v>
+        <v>41.61110582489192</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>45.92890150603395</v>
+        <v>44.75376157133059</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>51.16703971912465</v>
+        <v>45.22368248201366</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53.95814554072849</v>
+        <v>51.44418132577795</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>54.10947236754431</v>
+        <v>53.44312886643075</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>51.29298160137729</v>
+        <v>35.28461314069074</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>55.72214806933658</v>
+        <v>51.06708665046887</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>55.95713092392866</v>
+        <v>55.32661884029636</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24.41516471166532</v>
+        <v>5.124938845116446</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.02722567577927</v>
+        <v>31.18870963090973</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.18948151896612</v>
+        <v>38.64002715949408</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.25488942253178</v>
+        <v>15.04760998674243</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.06137110349966</v>
+        <v>24.38703409816804</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.25306074906521</v>
+        <v>27.99050562737767</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.46067884709426</v>
+        <v>21.75519627853549</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.27208406297189</v>
+        <v>28.70737326203079</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.48839121706746</v>
+        <v>31.84948597205431</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.81243129296636</v>
+        <v>32.31871011839172</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>31.69812970028903</v>
+        <v>38.53840484027506</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31.7985123875815</v>
+        <v>40.53691409338199</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.98138309859274</v>
+        <v>22.38032269983972</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.18489574021254</v>
+        <v>38.16125093037959</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.32744975401604</v>
+        <v>42.41966377853754</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>26.77683279380604</v>
+        <v>9.597347025924762</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.86279620349868</v>
+        <v>35.66382832152095</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.28565209819507</v>
+        <v>43.11589443800784</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.99934643841785</v>
+        <v>19.52000768312092</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>38.64869753434142</v>
+        <v>28.8613801284767</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>39.06156324506755</v>
+        <v>32.46527447512136</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32.14762272065013</v>
+        <v>26.22893909628652</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.64113116576063</v>
+        <v>33.18259337756064</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>37.01722772267494</v>
+        <v>36.32504379887251</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>41.82596222529473</v>
+        <v>36.79456821529897</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>45.23131987449845</v>
+        <v>43.01520985254905</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>45.47024403222233</v>
+        <v>45.01398878285164</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>42.35632324257246</v>
+        <v>26.855285050232</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>47.78455738140008</v>
+        <v>42.63823807813259</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>48.14429546705443</v>
+        <v>46.89733845784821</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.21709027379617</v>
+        <v>17.05777429956328</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.45554548139921</v>
+        <v>43.12400933087753</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.86984164664487</v>
+        <v>50.57614200768529</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>41.7029029022429</v>
+        <v>26.98068675693781</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>46.30313767767444</v>
+        <v>36.32225383346344</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>46.65139451121566</v>
+        <v>39.92631166464543</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>39.25188917286053</v>
+        <v>33.68987416496594</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>43.69880912512173</v>
+        <v>40.64372004538842</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>43.98656204864305</v>
+        <v>43.7862564141854</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>50.18897261953079</v>
+        <v>44.25604492258771</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>53.50444784605496</v>
+        <v>50.47671425012453</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>53.7293433287183</v>
+        <v>52.4755741287882</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>50.64951820316106</v>
+        <v>34.31672791033719</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>55.92214689350087</v>
+        <v>50.09967873529189</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>56.27497223343007</v>
+        <v>54.35902175506868</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24.41516471166532</v>
+        <v>4.794977119174803</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.02722567577927</v>
+        <v>30.85874857023822</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.18948151896612</v>
+        <v>38.31006714301401</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.25488942253178</v>
+        <v>14.71764207847394</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.06137110349966</v>
+        <v>24.05706638449925</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.25306074906521</v>
+        <v>27.66053989314986</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.46067884709426</v>
+        <v>21.42522734134519</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.27208406297189</v>
+        <v>28.37740238630005</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.48839121706746</v>
+        <v>31.51951576759149</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.81243129296636</v>
+        <v>31.98877044920897</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.69812970028903</v>
+        <v>38.20846271674901</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.7985123875815</v>
+        <v>40.2069721463468</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.98138309859274</v>
+        <v>22.05039230898802</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.18489574021254</v>
+        <v>37.83131534775254</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.32744975401604</v>
+        <v>42.08972902937927</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.77683279380604</v>
+        <v>9.267458158148941</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.86279620349868</v>
+        <v>35.33394012110995</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.28565209819507</v>
+        <v>42.78600728233101</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>33.99934643841785</v>
+        <v>19.19011263809131</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.64869753434142</v>
+        <v>28.53148527755496</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.06156324506755</v>
+        <v>32.13538160495449</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>32.14762272065013</v>
+        <v>25.89904302322731</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.64113116576063</v>
+        <v>32.85269536559639</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>37.01722772267494</v>
+        <v>35.99514645917151</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.82596222529473</v>
+        <v>36.46470140998764</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>45.23131987449845</v>
+        <v>42.68534059294331</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>45.47024403222233</v>
+        <v>44.68411970059589</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>42.35632324257246</v>
+        <v>26.52542752007326</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>47.78455738140008</v>
+        <v>42.30837535750157</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>48.14429546705443</v>
+        <v>46.56747657241414</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.21709027379617</v>
+        <v>16.72793768964954</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>39.45554548139921</v>
+        <v>42.79417338987918</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.86984164664487</v>
+        <v>50.24630711054255</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>41.7029029022429</v>
+        <v>26.65084397100355</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>46.30313767767444</v>
+        <v>35.99241124212807</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.65139451121566</v>
+        <v>39.59647105385255</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>39.25188917286053</v>
+        <v>33.36003035144989</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43.69880912512173</v>
+        <v>40.31387429390116</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>43.98656204864305</v>
+        <v>43.45641133439102</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50.18897261953079</v>
+        <v>43.92623037350796</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>53.50444784605496</v>
+        <v>50.14689724768942</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>53.7293433287183</v>
+        <v>52.14575730326447</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>50.64951820316106</v>
+        <v>33.98692263470281</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>55.92214689350087</v>
+        <v>49.76986827115485</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.27497223343007</v>
+        <v>54.02921212546795</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>24.61530201688966</v>
+        <v>0.56847201066347</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>27.68358926407607</v>
+        <v>26.63168093675546</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.81276072305332</v>
+        <v>34.08311380993956</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>27.37657604425085</v>
+        <v>10.49089038201618</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.91073000859305</v>
+        <v>19.82985402496223</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.07828887618166</v>
+        <v>23.43344672065024</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>26.58806435816829</v>
+        <v>17.19829039179905</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.07792930132234</v>
+        <v>24.15010721531763</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.25929656170455</v>
+        <v>27.29230082484952</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.95686693140698</v>
+        <v>27.76175028844119</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.60182162038107</v>
+        <v>33.98125071469218</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.67262668241774</v>
+        <v>35.97982705951478</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.23789527317519</v>
+        <v>17.8237237338347</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>33.0430867606833</v>
+        <v>33.60410386677978</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33.13526204815205</v>
+        <v>37.86265677400939</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.21315270238389</v>
+        <v>5.041088128415311</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>35.42150270335867</v>
+        <v>31.10700753600469</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.73975166547062</v>
+        <v>38.55918901488639</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>35.97454836883723</v>
+        <v>14.96349600349271</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>40.13058516026032</v>
+        <v>24.30440796353986</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>40.46001733130583</v>
+        <v>27.90842350220356</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>34.2888755408558</v>
+        <v>21.67224112127241</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>38.3189300113065</v>
+        <v>28.62553522966169</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>38.6104586919168</v>
+        <v>31.76806656768343</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>42.88594503050586</v>
+        <v>32.23781627617308</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>45.90972543033183</v>
+        <v>38.45826360897496</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>46.08827752778473</v>
+        <v>40.4571096445747</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>43.21169351944269</v>
+        <v>22.2988939736012</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>48.02129583351082</v>
+        <v>38.08129887677222</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>48.28412628569671</v>
+        <v>42.34053934516675</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.1345835227514</v>
+        <v>12.50140089027178</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.51934134536285</v>
+        <v>38.56707404085302</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>40.85512033025685</v>
+        <v>46.01932208146064</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>42.87413869152512</v>
+        <v>22.42406057141301</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>46.99796662609687</v>
+        <v>31.76516717743715</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.27466166212545</v>
+        <v>35.36934619638038</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>40.64929533238768</v>
+        <v>29.13306167588752</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>44.64411398991331</v>
+        <v>36.08654739224738</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>44.86178703350463</v>
+        <v>39.2291646749232</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50.372869495629</v>
+        <v>39.69917846670245</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>53.32608191575362</v>
+        <v>45.91965349640242</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>53.50110147865533</v>
+        <v>47.9185804770072</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>50.62750174416179</v>
+        <v>29.7602223076322</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>55.31520305073234</v>
+        <v>45.54262502481032</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>55.58869049124354</v>
+        <v>49.80210812478998</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>27.09023514542863</v>
+        <v>9.779891776340321</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.97929084811071</v>
+        <v>35.8432386777435</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.07974852315471</v>
+        <v>43.2946502618949</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.97455944906057</v>
+        <v>19.70265274602428</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.4280677582104</v>
+        <v>29.04177335500441</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.57854716654447</v>
+        <v>32.64537223011865</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.14045190950891</v>
+        <v>26.4102461133312</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30.55217595754628</v>
+        <v>33.36219126985208</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.70920926846959</v>
+        <v>36.50438657333171</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.40441538186025</v>
+        <v>36.9736634306376</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>33.96221211701322</v>
+        <v>43.19323573297942</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.02119220332381</v>
+        <v>45.19180967103119</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>32.53468263922038</v>
+        <v>27.03542181579331</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>35.19038263957203</v>
+        <v>42.81600486285794</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>35.26423867813158</v>
+        <v>47.07455284645533</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.56138329617003</v>
+        <v>14.25321781473411</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>37.38487479728014</v>
+        <v>40.31927519470645</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.6439245504351</v>
+        <v>47.77143537479066</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>38.29628725488082</v>
+        <v>24.17596831717668</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.2115850309291</v>
+        <v>33.51703724223552</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>42.49027916803936</v>
+        <v>37.12105895283077</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>36.61440725966215</v>
+        <v>30.88490680109948</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>40.41598650774571</v>
+        <v>37.83832924339805</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>40.65583255630921</v>
+        <v>40.98086226802019</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>44.7568194489296</v>
+        <v>41.45043936465873</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>47.60393549801327</v>
+        <v>47.67095857455098</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>47.74786603865459</v>
+        <v>49.66980219933072</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>44.91593363315726</v>
+        <v>31.51130199391065</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>49.44321251888495</v>
+        <v>47.29390981288526</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.81587190271208</v>
+        <v>21.71289693191005</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>41.80551295321571</v>
+        <v>47.77870804056766</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>42.09081320385829</v>
+        <v>55.23093478424829</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>44.34925123390191</v>
+        <v>31.63589922110481</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>48.23892793553797</v>
+        <v>40.9771627806229</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.47206222585675</v>
+        <v>44.58134797416159</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>42.18098143219205</v>
+        <v>38.34509367515938</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.9536145021486</v>
+        <v>45.29870771502675</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.12861722611559</v>
+        <v>48.44132668571791</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>51.34366881090894</v>
+        <v>48.91116787662196</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>54.12837732594491</v>
+        <v>55.13171477774068</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>54.27222224197695</v>
+        <v>57.13063934813346</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>51.44978024200682</v>
+        <v>38.97199666618991</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>55.86885418513505</v>
+        <v>54.75460228095932</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>56.0927252180997</v>
+        <v>59.01408044940814</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>21.10223012293014</v>
+        <v>9.545726573273498</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.03226411084745</v>
+        <v>35.60903740352722</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.18835800997472</v>
+        <v>43.06021423108422</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.73406568871622</v>
+        <v>19.46844118790449</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.17139756443616</v>
+        <v>28.80767685302527</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.34029566787708</v>
+        <v>32.41109945126703</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>22.28033049694974</v>
+        <v>26.17596141799521</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>23.71615505788268</v>
+        <v>33.12801169490427</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>23.91314248629262</v>
+        <v>36.27007116192311</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>24.82855626739438</v>
+        <v>36.73926805088848</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>26.36879199821315</v>
+        <v>42.9588649812427</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26.46987874909037</v>
+        <v>44.95734492767036</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>25.2262338916746</v>
+        <v>26.80098538523242</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>27.85344315505396</v>
+        <v>42.58167524581444</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.00330436289565</v>
+        <v>46.84001894431759</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>24.45414144796284</v>
+        <v>14.01923817768574</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.38032949940569</v>
+        <v>40.08525946436595</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>30.83993331144766</v>
+        <v>47.53718485945723</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.90608783698485</v>
+        <v>23.94194234339608</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.74371260390577</v>
+        <v>33.28312630611305</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>34.12862682727931</v>
+        <v>36.88697170683105</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.4497561542908</v>
+        <v>30.65080768909326</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.15012493697184</v>
+        <v>37.60433523648516</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>32.52845474627635</v>
+        <v>40.74673240156602</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>36.51871008342599</v>
+        <v>41.21622954743071</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>39.33881788224412</v>
+        <v>47.43677337631624</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>39.59888978352637</v>
+        <v>49.43552299260585</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>37.16169111948957</v>
+        <v>31.27705113883547</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>41.66300978246763</v>
+        <v>47.05976575777783</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>42.0712012478657</v>
+        <v>51.31879696616096</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.29503494259397</v>
+        <v>21.47928666995114</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>35.34804540129017</v>
+        <v>47.54506168694974</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.79006605077869</v>
+        <v>54.99705364452046</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.77220847883899</v>
+        <v>31.40224262152145</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>40.55847136927049</v>
+        <v>40.74362120894892</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>40.89303779585609</v>
+        <v>44.34763009304112</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>34.79478230133226</v>
+        <v>38.11136395248985</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>38.44570092733768</v>
+        <v>45.06508309040208</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>38.74293817250444</v>
+        <v>48.20756620225967</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>43.9824522236225</v>
+        <v>48.67732743889309</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>46.72055155160656</v>
+        <v>54.89789895478094</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>46.96448070856464</v>
+        <v>56.89672951793335</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>44.56391531080852</v>
+        <v>38.73811519082375</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>48.92471182882149</v>
+        <v>54.52082759661988</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>49.31762928364751</v>
+        <v>58.78010144154194</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>21.36829352434653</v>
+        <v>3.713415884900826</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>24.31597659045557</v>
+        <v>29.77663313161673</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>24.48042832907658</v>
+        <v>37.22796486985925</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.21662607263454</v>
+        <v>13.63591870269937</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>24.65513747528608</v>
+        <v>22.97500251544335</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>24.83233986595681</v>
+        <v>26.57851782705842</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.71091430584079</v>
+        <v>20.34336984326882</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.14299427030318</v>
+        <v>27.29527917052707</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.34973896144081</v>
+        <v>30.4374248980252</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.39229131276028</v>
+        <v>30.90673825210541</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.93723842400229</v>
+        <v>37.12625664754302</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.04251260504557</v>
+        <v>39.12478860240475</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.79377365453496</v>
+        <v>20.96862406649387</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.43042636341592</v>
+        <v>36.74909627807796</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.58616188032214</v>
+        <v>41.00756617028429</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>24.09885782005216</v>
+        <v>8.185471969036996</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>30.05911740265582</v>
+        <v>34.25139969318144</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.51998475776184</v>
+        <v>41.70348002858958</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.55799521050932</v>
+        <v>18.10796427410656</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>33.41855086292909</v>
+        <v>27.44899640530872</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.81390021839351</v>
+        <v>31.05293454761983</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.11766619960427</v>
+        <v>24.81676051430628</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>31.83410596119676</v>
+        <v>31.77014712660292</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>32.22305531910158</v>
+        <v>34.91263057681766</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.20894380669386</v>
+        <v>35.38224418361352</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>39.04522201653258</v>
+        <v>41.60270948379792</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.31110308874624</v>
+        <v>43.60151112323905</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>36.87140055532029</v>
+        <v>25.44323426032696</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>41.39846610526521</v>
+        <v>41.22573124457955</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>41.81473751519518</v>
+        <v>45.48488868458816</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.24321803996278</v>
+        <v>15.64576291573513</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35.33710300134787</v>
+        <v>41.71144439017593</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>35.77615814787064</v>
+        <v>49.16359127975255</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.76755630501965</v>
+        <v>25.56850701998513</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>40.58129476582619</v>
+        <v>34.90973379274527</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>40.92404217438929</v>
+        <v>38.51383541403044</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>34.78572588341839</v>
+        <v>32.27755924866295</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.45824978570823</v>
+        <v>39.23113746772714</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>38.76468788142454</v>
+        <v>42.37370686156265</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.03587867842689</v>
+        <v>42.84358455331193</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>46.7907555177139</v>
+        <v>49.0640775491043</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>47.03900144383307</v>
+        <v>51.062960133491</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>44.62501275923964</v>
+        <v>32.9045407765214</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>49.01153901417202</v>
+        <v>48.68703557484895</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>49.41021003476619</v>
+        <v>52.94643564480083</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>23.71436846909129</v>
+        <v>6.79924674713692</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>27.36914037032365</v>
+        <v>32.86281935854885</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.52447300482536</v>
+        <v>40.31427910974827</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.6950037600392</v>
+        <v>16.72199043849849</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.51371229280921</v>
+        <v>26.06118341720338</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.70415433970919</v>
+        <v>29.66478963398737</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.87424370187328</v>
+        <v>23.42958167584851</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>27.66198006653354</v>
+        <v>30.38157936275724</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>27.87297435410282</v>
+        <v>33.52378595075226</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.4884055589672</v>
+        <v>33.99311077243402</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.44001439815506</v>
+        <v>40.21273078365658</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>31.52749639658499</v>
+        <v>42.21131177706144</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.74012252183255</v>
+        <v>24.05483037989922</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.06891355613582</v>
+        <v>39.83553196251302</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.18708964713313</v>
+        <v>44.09409342502846</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.96354550465171</v>
+        <v>11.27235579004656</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>39.41637037262922</v>
+        <v>37.33863890506274</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>39.82908653929371</v>
+        <v>44.79084725839067</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>40.40834831523679</v>
+        <v>21.19508900578904</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>45.34656235071522</v>
+        <v>30.5362303170171</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>45.7242689964618</v>
+        <v>34.14025937085563</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>38.24344025491607</v>
+        <v>27.9040253687628</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>43.02208803155074</v>
+        <v>34.85750035329994</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>43.37597805121609</v>
+        <v>38.00004466486956</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>48.63967031915406</v>
+        <v>38.46966973418552</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>52.24797097549613</v>
+        <v>44.69023666065158</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>52.47313156234025</v>
+        <v>46.68908734219059</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>48.86078010955755</v>
+        <v>28.53049358107825</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>54.60759668021743</v>
+        <v>44.31321995363118</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>54.94876996025108</v>
+        <v>48.57246897032832</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>37.12032247621445</v>
+        <v>18.73234887304369</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>44.75090016571095</v>
+        <v>44.79838571820204</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>45.16569251830734</v>
+        <v>52.2506606360717</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>47.83263122085005</v>
+        <v>28.65533388353498</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>52.71719855216475</v>
+        <v>37.99666983237995</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>53.03128442486552</v>
+        <v>41.60086237032425</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.05863019353806</v>
+        <v>35.36452622604492</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>49.78188919988639</v>
+        <v>42.31819281195482</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>50.04578827459399</v>
+        <v>45.46082307053138</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>56.75414269451605</v>
+        <v>45.93071223135786</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>60.2700039318992</v>
+        <v>52.1513068506402</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>60.48219287114041</v>
+        <v>54.15023847870958</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>56.93539318489147</v>
+        <v>35.9915022335195</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>62.52393596470813</v>
+        <v>51.77422640541118</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>62.86056228845182</v>
+        <v>56.03371805969624</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>22.89154725767585</v>
+        <v>13.73492183550803</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.12694327905304</v>
+        <v>39.79853656791585</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.28869396352835</v>
+        <v>47.2498258387173</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.20599577901452</v>
+        <v>23.6578991383978</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.7985970329335</v>
+        <v>32.9973047090719</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>26.97930603722831</v>
+        <v>36.60079460538208</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.56806772939057</v>
+        <v>30.36560156008392</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.15755380343843</v>
+        <v>37.31776935515217</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.36531214196198</v>
+        <v>40.45988959560185</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.5449302645622</v>
+        <v>40.92902059502836</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.2434424341764</v>
+        <v>47.14869757223249</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.34423830207839</v>
+        <v>49.14720978145368</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.83193581144619</v>
+        <v>30.99055205438395</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.72713262170536</v>
+        <v>46.77146572639123</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>30.8733721307974</v>
+        <v>51.02988477615401</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.85311785824336</v>
+        <v>18.20754627993546</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.32262482392171</v>
+        <v>44.27387149148007</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.77762120164206</v>
+        <v>51.72590933993689</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.1305309814973</v>
+        <v>28.13051309469148</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>36.33893986714016</v>
+        <v>37.47186698491163</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>36.74523046185691</v>
+        <v>41.07577969081302</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>30.4841564103659</v>
+        <v>34.83956063187719</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>34.543255694276</v>
+        <v>41.79320571270324</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>34.93195364725049</v>
+        <v>44.93566365774308</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>39.3088858135432</v>
+        <v>45.40509492550387</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.39959747920724</v>
+        <v>51.62571880958006</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>42.65916123360127</v>
+        <v>53.62450069345863</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>39.87901937801401</v>
+        <v>35.46573064685373</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>44.81046121737064</v>
+        <v>51.24866909536382</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>45.21193075627065</v>
+        <v>55.50777566706284</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>31.0461811127952</v>
+        <v>25.66728453830893</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.65813666709045</v>
+        <v>51.73336347706419</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.0969354293493</v>
+        <v>59.18546788245891</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.48864933519504</v>
+        <v>35.59050312906919</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>43.64752443392633</v>
+        <v>44.93205164421698</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>43.99670535125944</v>
+        <v>48.5361278327552</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>37.2774560230749</v>
+        <v>42.29980664303054</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>41.28959563396087</v>
+        <v>49.25364331645659</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>41.59224940518778</v>
+        <v>52.3961872065924</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>47.3062975843563</v>
+        <v>52.86588257531065</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>50.31082613986754</v>
+        <v>59.08653414649763</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>50.55414436357032</v>
+        <v>61.08539697673854</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>47.81018668863932</v>
+        <v>42.92648446299933</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>52.59298534914247</v>
+        <v>58.70942069762185</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>52.98101061021296</v>
+        <v>62.96876990501704</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>23.13089797335497</v>
+        <v>-0.02014588063963174</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.48054884141018</v>
+        <v>26.04275157784156</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.6435785434063</v>
+        <v>33.49393252387284</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.49644837657945</v>
+        <v>9.901924032211298</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.17240242315762</v>
+        <v>19.24099808893737</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>27.35448921798719</v>
+        <v>22.8444008599443</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>24.83906666187518</v>
+        <v>16.60924208882506</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.52213275733254</v>
+        <v>23.56113963449201</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.73151436477867</v>
+        <v>26.70319864996765</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>27.86126373729407</v>
+        <v>27.17246699377773</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.60187891143123</v>
+        <v>33.39192541215772</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.70368859024673</v>
+        <v>35.39040262618749</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.11836026112631</v>
+        <v>17.23449651542597</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>31.07366928470574</v>
+        <v>33.01479737436506</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>31.22148580224313</v>
+        <v>37.27315131621998</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.73811663797821</v>
+        <v>4.451703743088444</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>31.30621172596676</v>
+        <v>30.51731164741744</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.73842290895129</v>
+        <v>37.9692411824447</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.10503461268454</v>
+        <v>14.37376316571846</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>35.39979997521385</v>
+        <v>23.7147855047802</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.80595385494133</v>
+        <v>27.31861110771098</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.46354075262415</v>
+        <v>21.08242629326145</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.60627351519451</v>
+        <v>28.03580109973421</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.98789015656158</v>
+        <v>31.17819783839292</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>38.39917961792231</v>
+        <v>31.64776642824717</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>41.54541796328664</v>
+        <v>37.8681717372562</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>41.79525053038769</v>
+        <v>39.86691863291554</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>39.04278178229493</v>
+        <v>21.70890022353836</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>44.0595260250361</v>
+        <v>37.49122582946183</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>44.4417503087024</v>
+        <v>41.75026731420127</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.17666922237835</v>
+        <v>11.91215873547861</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.88242424779347</v>
+        <v>37.97752039604535</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>37.29856751651554</v>
+        <v>45.42951648638081</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>38.71703670763628</v>
+        <v>21.83446996893548</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>42.96227312247633</v>
+        <v>31.17568694043456</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>43.30918645150466</v>
+        <v>34.77967602094606</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.4993402242732</v>
+        <v>28.5433890840672</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>40.59585285037094</v>
+        <v>35.49695549242114</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>40.89281328547565</v>
+        <v>38.63943817499108</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>46.64886253790042</v>
+        <v>39.10927084172914</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>49.70812025994856</v>
+        <v>45.32970384505217</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>49.94222837903633</v>
+        <v>47.32853168569801</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>47.21270933767934</v>
+        <v>29.17037077987362</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>52.07897301625626</v>
+        <v>44.95269420047708</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>52.44928967645524</v>
+        <v>49.21197831508135</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>23.47653576429773</v>
+        <v>4.549371759911935</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.93500373259756</v>
+        <v>30.61270887194092</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.10010704253919</v>
+        <v>38.06386131124253</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.85381763881433</v>
+        <v>14.47179016561171</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.58457070138356</v>
+        <v>23.81107443088951</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>27.76959241218639</v>
+        <v>27.41442803722106</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.1865519678406</v>
+        <v>21.17923892636628</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>26.92385814666413</v>
+        <v>28.13131486213791</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.1363459935239</v>
+        <v>31.27333111498473</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.23296910465615</v>
+        <v>31.74253350629755</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.03960343333834</v>
+        <v>37.96213442366508</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.14258268116023</v>
+        <v>39.96058971839892</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.44265669131593</v>
+        <v>21.80430085141762</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.51174663352076</v>
+        <v>37.58498584219518</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.66104476894677</v>
+        <v>41.84327475067261</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.86700027391523</v>
+        <v>9.022266481329609</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>32.66136553958285</v>
+        <v>35.08831405961729</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.10526824812045</v>
+        <v>42.54021507426825</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.56759238323323</v>
+        <v>18.94467443138473</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.02065916333507</v>
+        <v>28.28590699346813</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>37.42937486045471</v>
+        <v>31.88968341073229</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>30.82909116290824</v>
+        <v>25.65346829570836</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>35.13359011657104</v>
+        <v>32.60702150223682</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>35.51425043784356</v>
+        <v>35.74937546089944</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>40.08322942779673</v>
+        <v>36.21887811153732</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>43.34517253166374</v>
+        <v>42.43942592835657</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>43.5932796121395</v>
+        <v>44.43815089539015</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>40.6583907791288</v>
+        <v>26.27974971766349</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>45.85859838636671</v>
+        <v>42.06245947289898</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>46.23755551785202</v>
+        <v>46.32143590002846</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.03763062398024</v>
+        <v>16.48272191068924</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>37.97632612816795</v>
+        <v>42.54852322881965</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.40821242389599</v>
+        <v>50.00049080691241</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>39.93983320613973</v>
+        <v>26.40538166315667</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>44.34172413238098</v>
+        <v>35.74680885189576</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>44.6887976452843</v>
+        <v>39.3507487536495</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>37.62755035988619</v>
+        <v>33.11443152200769</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>41.882857251476</v>
+        <v>40.06817632344365</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>42.17530198632312</v>
+        <v>43.21061623040788</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>48.09751997014757</v>
+        <v>43.68038296540948</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>51.2711529752612</v>
+        <v>49.90095847174456</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>51.50381003688474</v>
+        <v>51.89976438666559</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>48.61164184276362</v>
+        <v>33.74122072354652</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>53.65961936189056</v>
+        <v>49.52392827478178</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>54.02802477946609</v>
+        <v>53.78314734079191</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>23.78201619342359</v>
+        <v>1.28875255435338</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>27.14630926719248</v>
+        <v>27.35191524511839</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>27.31322669157055</v>
+        <v>34.80308990478824</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.3186929352875</v>
+        <v>11.21101577165467</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.00136670671728</v>
+        <v>20.55017030130233</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.18586901713902</v>
+        <v>24.15355037595583</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.59282710614069</v>
+        <v>17.91839432160924</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.28357365520275</v>
+        <v>24.87036030685471</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.49633326227884</v>
+        <v>28.0124011258726</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.73794209769305</v>
+        <v>28.48170103481908</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.48353207104773</v>
+        <v>34.70122123843015</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.5872751120298</v>
+        <v>36.69968677861556</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.97013749236191</v>
+        <v>18.54363844311996</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.93331815121888</v>
+        <v>34.32411698352922</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>32.08422227500144</v>
+        <v>38.58243673730266</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.56597980537599</v>
+        <v>5.760823676476264</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>32.17167971578603</v>
+        <v>31.82669683228102</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>32.5867489378936</v>
+        <v>39.27862007346874</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>32.02947597665789</v>
+        <v>15.68307639712913</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>36.35843400462198</v>
+        <v>25.02417922483249</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>36.75715347582485</v>
+        <v>28.62798211594503</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.37307821210042</v>
+        <v>22.3918000379295</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>34.55445848591724</v>
+        <v>29.34524329383083</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>34.92208660205686</v>
+        <v>32.48762182473905</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>39.30076037165205</v>
+        <v>32.95722198510401</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.47142977477755</v>
+        <v>39.1776890865911</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.70698242885143</v>
+        <v>41.17642430265863</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.87351325748268</v>
+        <v>23.0182636584363</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>44.92795182074033</v>
+        <v>38.80076696277405</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>45.28464122326302</v>
+        <v>43.05977424463805</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>30.88791610719337</v>
+        <v>13.22148537352399</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>37.63337175888898</v>
+        <v>39.28711228247204</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.03039460025821</v>
+        <v>46.73910208048773</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.49553775768912</v>
+        <v>23.14398990067929</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>43.77686038197496</v>
+        <v>32.48528736285397</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>44.11052796053017</v>
+        <v>36.08925373255175</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>37.26753922297718</v>
+        <v>29.85296954092888</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>41.4045337670039</v>
+        <v>36.80660439930847</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.68403703570533</v>
+        <v>39.94906887452561</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>47.39725935239512</v>
+        <v>40.41893310965946</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>50.48215504401469</v>
+        <v>46.63942790516847</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>50.69917020139147</v>
+        <v>48.63824406697751</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>47.89655257658661</v>
+        <v>30.47994092308824</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>52.8024525274823</v>
+        <v>46.26244204010567</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>53.14330598549018</v>
+        <v>50.52169195320056</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.54160198203104</v>
+        <v>-2.175651906767882</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.73919413900015</v>
+        <v>23.88695299675527</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.91019619769389</v>
+        <v>31.33795312027866</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.57625043016214</v>
+        <v>7.74622133746692</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>26.17157028255485</v>
+        <v>17.08516793715427</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>26.35066240527613</v>
+        <v>20.68842686165016</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.99122449943039</v>
+        <v>14.45338117188697</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.59430632115916</v>
+        <v>21.40519530994931</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.80461188726074</v>
+        <v>24.54713698007794</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.81711436804186</v>
+        <v>25.01646119823528</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.47753628027396</v>
+        <v>31.23585001285772</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.58400852833094</v>
+        <v>33.23426166142139</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.11122529257647</v>
+        <v>15.07865407100491</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.93124534110065</v>
+        <v>30.85878107675381</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>30.08882802057961</v>
+        <v>35.11698037045045</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.75505589364619</v>
+        <v>2.296691836369121</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.07107464451341</v>
+        <v>28.36200715437707</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>31.51406510597482</v>
+        <v>35.81375584775759</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.71211929328797</v>
+        <v>12.21855460252146</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>34.84160564884375</v>
+        <v>21.55944945917787</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>35.24006984175102</v>
+        <v>25.16313119518014</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.16413136362935</v>
+        <v>18.9270595049914</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>33.15323272774441</v>
+        <v>25.88035088369105</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.53018263736224</v>
+        <v>29.02263026140389</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>37.67624353043907</v>
+        <v>29.49225471587368</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>40.70052756556063</v>
+        <v>35.71259040999456</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>40.94903676005481</v>
+        <v>37.71127173009205</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>38.28893298802091</v>
+        <v>19.55355186410446</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>43.11057892853034</v>
+        <v>35.33570359576373</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>43.49285731400864</v>
+        <v>39.59459040623329</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.80737875906489</v>
+        <v>9.757512054923893</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>36.25583383135898</v>
+        <v>35.82258113419226</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.67732623122758</v>
+        <v>43.27439638725065</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>37.84580216548593</v>
+        <v>19.67962663567999</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>41.92611824314737</v>
+        <v>29.02071612412846</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>42.26272457397211</v>
+        <v>32.62456133777806</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>35.75330893358133</v>
+        <v>26.38838754086368</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>39.69588503153323</v>
+        <v>33.34187051886937</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>39.98489246220403</v>
+        <v>36.48423584141443</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>45.42047501907722</v>
+        <v>36.95412436012253</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>48.36090232642759</v>
+        <v>43.17448774884764</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>48.58977938568708</v>
+        <v>45.17325001398416</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>45.96721039563638</v>
+        <v>27.01538764284265</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>50.64423596083807</v>
+        <v>42.79753719076717</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>51.00760005229724</v>
+        <v>47.0566666299199</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>23.37116272718968</v>
+        <v>3.781872644399471</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.02484352037285</v>
+        <v>29.84539187890795</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.18622711585819</v>
+        <v>37.29691691870113</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.46415777403849</v>
+        <v>13.704544440083</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.28197355544584</v>
+        <v>23.04366128079181</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.47303676218182</v>
+        <v>26.64730881583824</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.62158515760105</v>
+        <v>20.41208172955061</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.40543057104138</v>
+        <v>27.36401147599003</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>27.61859585529862</v>
+        <v>30.50625287976237</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.32555064745246</v>
+        <v>30.97564122582008</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>31.27269308387991</v>
+        <v>37.19522361636001</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.35967470071655</v>
+        <v>39.19382615671299</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.62024695832699</v>
+        <v>21.03743750216432</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>32.94095872595756</v>
+        <v>36.8180373622468</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.0580705427294</v>
+        <v>41.07665005286623</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>31.32052471130098</v>
+        <v>8.25416655527107</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>38.7704207530965</v>
+        <v>34.32039629733464</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>39.1927256344088</v>
+        <v>41.7726699517255</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>39.75223003895545</v>
+        <v>18.1768278429393</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>44.69741471663917</v>
+        <v>27.5178930209716</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>45.08584741159467</v>
+        <v>31.121963405298</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>37.61450329359338</v>
+        <v>24.88571024723495</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>42.39488077023071</v>
+        <v>31.83911729401308</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>42.75938116468723</v>
+        <v>34.98169643151726</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>47.99659035839414</v>
+        <v>35.45138502982212</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>51.60886911743522</v>
+        <v>41.67191433604393</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>51.84042614033203</v>
+        <v>43.67078657092662</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>48.25340927933594</v>
+        <v>25.51228555466702</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>54.00615331292883</v>
+        <v>41.29491020452309</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>54.35686946714378</v>
+        <v>45.55421046564601</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.76759579270546</v>
+        <v>15.71430971430362</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>44.39731951815756</v>
+        <v>41.78029319564251</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>44.82137178292366</v>
+        <v>49.23263340957334</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>47.48993978645981</v>
+        <v>25.63722280301801</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>52.38231010596299</v>
+        <v>34.97848262681447</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>52.70665541651097</v>
+        <v>38.58271649326031</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>44.72846938063741</v>
+        <v>32.34636119023497</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>49.4545925358623</v>
+        <v>39.29995984595467</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>49.72899029020887</v>
+        <v>42.44262492874867</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>56.43313169422633</v>
+        <v>42.9125776176873</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>59.95290420189995</v>
+        <v>49.13313462075445</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>60.1723101594576</v>
+        <v>51.13208780146175</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>56.63528791135127</v>
+        <v>32.97344429160381</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>62.22941258852693</v>
+        <v>48.75606675319506</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>62.57729856233173</v>
+        <v>53.01560964883362</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>24.21089890934227</v>
+        <v>2.555266643966377</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.602174332682</v>
+        <v>28.61838662301528</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.75757820144294</v>
+        <v>36.06953986093282</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.7134508255934</v>
+        <v>12.47753222702255</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.42911840674678</v>
+        <v>21.81672841670337</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.60852941951049</v>
+        <v>25.42009999392684</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.00667579681948</v>
+        <v>19.18491788209388</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>27.73346504530846</v>
+        <v>26.13691564527977</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.93727962015349</v>
+        <v>29.27894847449164</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.07899676861498</v>
+        <v>29.74817989386696</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.83708858216902</v>
+        <v>35.96771056409483</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.93281274011076</v>
+        <v>37.96617115897499</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.2614803745073</v>
+        <v>19.81008609652866</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.23983199367046</v>
+        <v>35.59058191732851</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.37666797745668</v>
+        <v>39.84889175188101</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.57344830400321</v>
+        <v>7.027332810678615</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>32.15363888517541</v>
+        <v>33.09316324187927</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.54698369692641</v>
+        <v>40.54506505878879</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>32.0816922247925</v>
+        <v>16.94958791040648</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.41858513834863</v>
+        <v>26.29073238695293</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>36.80813074629121</v>
+        <v>29.8945267824933</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.42806033849726</v>
+        <v>23.65831864713408</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>34.61919921379156</v>
+        <v>30.61179367334393</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.97239782882406</v>
+        <v>33.75416421481356</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>39.34173745873005</v>
+        <v>34.22369589097792</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.5092725308834</v>
+        <v>40.44417345479229</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.73238286595402</v>
+        <v>42.44290372465588</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.91315738219996</v>
+        <v>24.28470636506239</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>44.95890244077822</v>
+        <v>40.06722693908176</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>45.29375814188039</v>
+        <v>44.3262243010418</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>30.80322093216592</v>
+        <v>14.4877716472584</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.52012506286371</v>
+        <v>40.55335582647109</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.90415008081096</v>
+        <v>48.00532420256224</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.43129938655606</v>
+        <v>24.41027855096451</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>43.72191867211891</v>
+        <v>33.75161765606271</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>44.04891890769009</v>
+        <v>37.35557553152415</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.21362981942072</v>
+        <v>31.11926527934094</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>41.36138461699755</v>
+        <v>38.072931903442</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>41.63191267239678</v>
+        <v>41.21538839033366</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>47.30206082148375</v>
+        <v>41.68518414585895</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>50.38557546962016</v>
+        <v>47.90568940152451</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.5948641167104</v>
+        <v>49.90450061789812</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>47.79838835776485</v>
+        <v>31.74616076667013</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>52.69846900127484</v>
+        <v>47.5286791460357</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>53.02597344158345</v>
+        <v>51.78791914197058</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.50036875982654</v>
+        <v>13.27733781166745</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>32.26748370789773</v>
+        <v>39.34112535018636</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.3646329468654</v>
+        <v>46.7926495128109</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.74048996077092</v>
+        <v>23.2004287369902</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>34.13810210962422</v>
+        <v>32.53975874349652</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.28607574588246</v>
+        <v>36.14341509616298</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>31.80134419914578</v>
+        <v>29.90818857214521</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>33.15859935984183</v>
+        <v>36.86028865647955</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>33.31054617739267</v>
+        <v>40.00253663421421</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.12858950804114</v>
+        <v>40.47175921280422</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.61967039667902</v>
+        <v>46.6914471868958</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.67699805781326</v>
+        <v>48.69005057104397</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>35.13328953496336</v>
+        <v>30.53328937408054</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>37.67341657742933</v>
+        <v>46.31418220963991</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.74483237894584</v>
+        <v>50.57279447890875</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>32.25757849913897</v>
+        <v>17.75012463444676</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>37.74309914614006</v>
+        <v>43.81662268486781</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.98030464975244</v>
+        <v>51.26889545321313</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>38.81233663351428</v>
+        <v>27.67320507023959</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>42.52042948066843</v>
+        <v>37.01448342010173</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>42.79211054340382</v>
+        <v>40.61856261186739</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>37.18775274242655</v>
+        <v>34.38231003141192</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>40.79049241774865</v>
+        <v>41.33588742085618</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>41.01704943716435</v>
+        <v>44.47847312378354</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>44.90742776470582</v>
+        <v>44.94799595739534</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.60213865668003</v>
+        <v>51.16863085082701</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>47.73608912193365</v>
+        <v>53.16750392458545</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>45.00302277524406</v>
+        <v>35.00863036043125</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>49.28635805878248</v>
+        <v>50.791547992581</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>49.4771872707764</v>
+        <v>55.05084781983652</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.33696125692499</v>
+        <v>25.20966909076679</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>41.98672925481479</v>
+        <v>51.27592086321971</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.24869357555553</v>
+        <v>58.72826019389396</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.58436431426551</v>
+        <v>35.13300130494559</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>48.27377646763129</v>
+        <v>44.47447428878667</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>48.49825376772946</v>
+        <v>48.07871696573005</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>42.49834912609529</v>
+        <v>41.84236223516524</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>46.07842244121293</v>
+        <v>48.79613122294944</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.24142067009394</v>
+        <v>51.93880287314317</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>51.17985975573349</v>
+        <v>52.40858980861827</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>53.81921146460314</v>
+        <v>58.62925239235318</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>53.95252012053309</v>
+        <v>60.62820641310321</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>51.21918619654627</v>
+        <v>42.46919037685115</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>55.40598123824233</v>
+        <v>58.25210580127833</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>55.61136574775033</v>
+        <v>62.51164826732673</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.15107925282839</v>
+        <v>7.520451198077069</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.47379297894182</v>
+        <v>33.58339853131287</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.55462102566002</v>
+        <v>41.03476260693316</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.38350717651277</v>
+        <v>17.4430273840332</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>30.49501569067707</v>
+        <v>26.78194338771738</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.58357391686616</v>
+        <v>30.38552987559609</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.9942589932617</v>
+        <v>24.15048851927662</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>30.10383608737783</v>
+        <v>31.10227508707538</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>30.16490189959259</v>
+        <v>34.24445562816169</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.16741544341111</v>
+        <v>34.71380393721546</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.34215148015377</v>
+        <v>40.9332606573002</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.41989277052532</v>
+        <v>42.93182697371668</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.37105328487348</v>
+        <v>24.77577380842064</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.68300395989692</v>
+        <v>40.5560545900284</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.81096540284593</v>
+        <v>44.81458423529006</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.60506880771284</v>
+        <v>11.99319324659422</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.37823594672894</v>
+        <v>38.05885102326823</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.86144338037001</v>
+        <v>45.51096369188537</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.94525825460072</v>
+        <v>21.9157589413191</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>38.41289674023378</v>
+        <v>31.25662323643991</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>38.70477152129949</v>
+        <v>34.86063256163249</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>37.01721842851249</v>
+        <v>28.62456516839205</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>37.47686631595245</v>
+        <v>35.57782900276999</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.78388188804313</v>
+        <v>38.72034726655642</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>39.1447598343149</v>
+        <v>39.18999581610166</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>39.4664658247239</v>
+        <v>45.41039943059963</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>39.7436016026462</v>
+        <v>47.40923543478488</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>39.01658417584872</v>
+        <v>29.2510699488459</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>39.52391828344903</v>
+        <v>45.03337547306984</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>39.9873777157916</v>
+        <v>49.29259266990556</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.3961045612159</v>
+        <v>19.4528407910297</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>36.22153696327723</v>
+        <v>45.51825230459934</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.59801451221741</v>
+        <v>52.97043153450414</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>38.85826340272062</v>
+        <v>29.37565827221039</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>39.37164171248953</v>
+        <v>38.71671720554258</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>39.59371519559578</v>
+        <v>42.32089000969262</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>37.89614497942053</v>
+        <v>36.08472046761898</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.39429625697656</v>
+        <v>43.03817590188891</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.62529254929973</v>
+        <v>46.18078010946721</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>40.12500745159203</v>
+        <v>46.65069274649653</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>40.4737489961275</v>
+        <v>52.8711240547695</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>40.7005204864228</v>
+        <v>54.87004100293717</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>39.96418338046811</v>
+        <v>36.71173303557345</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>40.51212533442364</v>
+        <v>52.49403636387814</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.89527699267322</v>
+        <v>56.75349619013099</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.65156961931146</v>
+        <v>5.464240450609452</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.04894229258083</v>
+        <v>31.52817068816768</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.18943226024481</v>
+        <v>38.97962553861731</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.56230932689724</v>
+        <v>15.38697676759108</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.2976587443448</v>
+        <v>24.72641859619881</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.4828173100003</v>
+        <v>28.32997839034198</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.73063917190181</v>
+        <v>22.09463448462844</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.45608167284768</v>
+        <v>29.04681629898749</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.65809083864355</v>
+        <v>32.18899828023535</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.10534681923316</v>
+        <v>32.65824805192398</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>32.88345170113791</v>
+        <v>38.87797116332746</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>32.96913293838371</v>
+        <v>40.87652875756436</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>31.24239801356682</v>
+        <v>22.71981461920672</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.25396937455118</v>
+        <v>38.50079237212373</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>34.36997145764141</v>
+        <v>42.75930910514097</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.22947040966941</v>
+        <v>9.936716173627872</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.84426232683676</v>
+        <v>36.00335694549193</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.17539209926782</v>
+        <v>43.45556040135745</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.20244044008223</v>
+        <v>19.85944200951286</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>39.63362886363223</v>
+        <v>29.20083218795531</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.98782814012613</v>
+        <v>32.80481481818794</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.47385726702856</v>
+        <v>26.56844485470202</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>37.76789111087047</v>
+        <v>33.52210397951109</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>38.07597002886151</v>
+        <v>36.66462368556114</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>42.46906096533623</v>
+        <v>37.13417372127884</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>45.68165147649846</v>
+        <v>43.35484375630352</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>45.86637096178563</v>
+        <v>45.35367103708694</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>42.85236944609731</v>
+        <v>27.19484452976729</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>47.95880670537369</v>
+        <v>42.97784709627905</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>48.22781901206804</v>
+        <v>47.23705138367558</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.31044823087626</v>
+        <v>17.39702531010397</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>40.07863870412447</v>
+        <v>43.46341981606173</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.42116229355489</v>
+        <v>50.9156898338411</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.34737936978315</v>
+        <v>27.32000294992457</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>46.7387769316729</v>
+        <v>36.66158776374431</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>47.03095554995887</v>
+        <v>40.26573388019079</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>40.06102567282147</v>
+        <v>34.02926178376123</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>44.31510487883681</v>
+        <v>40.98311251163733</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>44.5461669595559</v>
+        <v>44.12571816598319</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>50.20120875620519</v>
+        <v>44.59553229554746</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>53.33571300427494</v>
+        <v>50.81623002287432</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>53.51346078691118</v>
+        <v>52.81513825231326</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>50.5095441243174</v>
+        <v>34.65616925592434</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>55.48064946901879</v>
+        <v>50.4391696235528</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>55.75578378476648</v>
+        <v>54.69861655299854</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>25.08284623948861</v>
+        <v>3.316375720901817</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>27.94604060194026</v>
+        <v>29.37929245934737</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.06712310001997</v>
+        <v>36.83064807801378</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.77984885331201</v>
+        <v>13.23879548615929</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.21498927461473</v>
+        <v>22.57769694026894</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.37043209140421</v>
+        <v>26.1812650303919</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.02761784989568</v>
+        <v>19.94616640732846</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.41969241380972</v>
+        <v>26.89793980450719</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.58913027424511</v>
+        <v>30.04011163581293</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.21232746360705</v>
+        <v>30.5094745218949</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.74392651040137</v>
+        <v>36.7289110328224</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.8099463560068</v>
+        <v>38.72746895464769</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>30.47225322610799</v>
+        <v>20.57149280500852</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>33.08266908527725</v>
+        <v>36.35172783589707</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.16878604967971</v>
+        <v>40.61024305160339</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.80145716185612</v>
+        <v>7.788665844189438</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>35.6146054620669</v>
+        <v>33.85429303574784</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.9046615446975</v>
+        <v>41.30639725506813</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.27178611388312</v>
+        <v>17.71107511130964</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>40.17536338775615</v>
+        <v>27.05192486399534</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>40.48106255595914</v>
+        <v>30.65591579796211</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>34.68008927554866</v>
+        <v>24.41979111776101</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>38.46087738371043</v>
+        <v>31.37304178662413</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>38.73240118508514</v>
+        <v>34.51555134728511</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>42.70903362146326</v>
+        <v>34.9852144747386</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>45.55334961423499</v>
+        <v>41.20559788255872</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>45.7155595452157</v>
+        <v>43.20442549444869</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>42.96200958601897</v>
+        <v>25.04633702308314</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>47.48729868652835</v>
+        <v>40.82859680486541</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>47.72390300921302</v>
+        <v>45.08779957940686</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>34.49141158100358</v>
+        <v>15.24862661673563</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>40.47042169185202</v>
+        <v>41.31400755537828</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.77418453199035</v>
+        <v>48.76617833310371</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.81553089695117</v>
+        <v>25.17128768159779</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>46.69268691796216</v>
+        <v>34.51233207628417</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>46.9474035073283</v>
+        <v>38.11648648895181</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>40.71050328072242</v>
+        <v>31.88025966382344</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>44.46325405761574</v>
+        <v>38.8337019379947</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>44.66465707149164</v>
+        <v>41.9762974426838</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>49.81197876808628</v>
+        <v>42.44622465483184</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>52.5913306699475</v>
+        <v>48.66663575868398</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>52.74944595837246</v>
+        <v>50.66554431479011</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>49.99616496547306</v>
+        <v>32.50731335277254</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>54.40832429825127</v>
+        <v>48.28957094854121</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>54.65388326039522</v>
+        <v>52.54901635248126</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.02752827444627</v>
+        <v>6.114614842586718</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.33897859284123</v>
+        <v>32.17744601463249</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.42053420181592</v>
+        <v>39.62881104642082</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.2292937975945</v>
+        <v>16.03712534231664</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.33594355465953</v>
+        <v>25.37597665146535</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>30.42424807304145</v>
+        <v>28.97956815410492</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.84831714504489</v>
+        <v>22.74453372575891</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.95338422520449</v>
+        <v>29.69626831303793</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>30.01428564871777</v>
+        <v>32.83845267764781</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.00682228852579</v>
+        <v>33.30782957056573</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.17484954413001</v>
+        <v>39.5272498167522</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>31.25295017516558</v>
+        <v>41.52581883363001</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.21914838576189</v>
+        <v>23.36986796180742</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.51929379454716</v>
+        <v>39.15005058657636</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>31.64802630339068</v>
+        <v>43.40858866698414</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>34.37731320603428</v>
+        <v>10.58709993749704</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>35.12760549292245</v>
+        <v>36.65264154448101</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>35.61362045309939</v>
+        <v>44.10475517224842</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>37.66136958047029</v>
+        <v>20.50959993704231</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>38.11444579762502</v>
+        <v>29.85039953246093</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>38.408150435568</v>
+        <v>33.45441387618661</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.74814094380178</v>
+        <v>27.21835340412593</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>37.19352881301114</v>
+        <v>34.17156525341528</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>37.50251510414886</v>
+        <v>37.31408734367579</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>38.84010241240262</v>
+        <v>37.78376447668114</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>39.15077833390513</v>
+        <v>44.00413161436444</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>39.42967814520696</v>
+        <v>46.00297032051941</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>38.72540475596872</v>
+        <v>27.84490713602162</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>39.21504516931616</v>
+        <v>43.62711449572083</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.68145340512121</v>
+        <v>47.88634013182519</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>35.18441537835554</v>
+        <v>18.04678517942358</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>35.98702106570828</v>
+        <v>44.11208052726994</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.36541873674962</v>
+        <v>51.56426071473521</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.58943852878653</v>
+        <v>27.96953696790814</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>39.08904527939551</v>
+        <v>37.31053120335201</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>39.31273559399385</v>
+        <v>40.91470902520967</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>37.64238286490171</v>
+        <v>34.67854640338982</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>38.12719368603952</v>
+        <v>41.63194985488491</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>38.35978543052927</v>
+        <v>44.77455788820265</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>39.83520877945065</v>
+        <v>45.24449910733932</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>40.17340196476029</v>
+        <v>51.46489394009387</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>40.40164801440136</v>
+        <v>53.46381358978482</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>39.68648803371606</v>
+        <v>35.30560792008777</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>40.21743710199009</v>
+        <v>51.08781308841247</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>40.60302379400601</v>
+        <v>55.34728135257257</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>24.0477546103294</v>
+        <v>9.19936700920249</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>27.60273731929054</v>
+        <v>35.26277885009921</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>27.76952851673963</v>
+        <v>42.71418963267337</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>27.20288993315283</v>
+        <v>19.12222427601188</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.97174659708342</v>
+        <v>28.46137216128756</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.16476725910566</v>
+        <v>32.06496000925205</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>26.32774701934197</v>
+        <v>25.82979851928468</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.06706059495909</v>
+        <v>32.78175529105937</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.28400568799634</v>
+        <v>35.92395083097034</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>30.02355215254232</v>
+        <v>36.39323336986894</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>31.9087346648508</v>
+        <v>42.61280587428718</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>31.99928827570671</v>
+        <v>44.61137051561769</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>30.29431165131547</v>
+        <v>26.45497853779085</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.50716101461811</v>
+        <v>42.23558709405</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>33.6306269014603</v>
+        <v>46.49412135147367</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.8105991949168</v>
+        <v>13.6717453299961</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>36.98781758668999</v>
+        <v>39.7378676560275</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>37.39896509264386</v>
+        <v>47.1900270363746</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>37.65836369088066</v>
+        <v>23.59459209586652</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>42.41917082549383</v>
+        <v>32.93568830417433</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>42.81293822993188</v>
+        <v>36.53969898491192</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>35.67387170965731</v>
+        <v>30.30351144720402</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>40.27587207474653</v>
+        <v>37.25694550745465</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>40.63977734287067</v>
+        <v>40.39947876900607</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>45.60166458458852</v>
+        <v>40.86906156203639</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>49.07920317669856</v>
+        <v>47.0895809746375</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>49.30859648239061</v>
+        <v>49.08841530210026</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>45.93529974255969</v>
+        <v>30.92991098697968</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>51.47339311778488</v>
+        <v>46.71254431894539</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>51.81866268339767</v>
+        <v>50.97176612647826</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>35.35263923189122</v>
+        <v>21.13164170204863</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>42.70634223140702</v>
+        <v>47.19751776702407</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>43.11631111048011</v>
+        <v>54.64974370421982</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>45.45522648729194</v>
+        <v>31.05474025336906</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>50.16654240530168</v>
+        <v>40.39603110159277</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>50.49500526835034</v>
+        <v>44.00020526211171</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>42.85660292435277</v>
+        <v>37.76391558409495</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>47.40830884355085</v>
+        <v>44.71754124823764</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>47.6823626176139</v>
+        <v>47.86016045354728</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>54.07796851763404</v>
+        <v>48.33000733803595</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>57.4660617488815</v>
+        <v>54.55055444451483</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>57.68239581602963</v>
+        <v>56.54946971731141</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>54.34314465008012</v>
+        <v>38.39082291773872</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>59.72750732453635</v>
+        <v>54.17345405502982</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>60.0683406177742</v>
+        <v>58.43291849424298</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>25.89946712358852</v>
+        <v>6.825203424872882</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.43126716938216</v>
+        <v>32.88913658871121</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.57330059835906</v>
+        <v>40.34061308698762</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.06472367663535</v>
+        <v>16.74802342458389</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>30.8572600551264</v>
+        <v>26.08746244548587</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>31.0454200797229</v>
+        <v>29.69104605266574</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.17104517986742</v>
+        <v>23.4557036885098</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.9474433028457</v>
+        <v>30.40788377350719</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>30.15213402235219</v>
+        <v>33.55008344839229</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>31.74383822430344</v>
+        <v>34.0193281649361</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>33.6027683341669</v>
+        <v>40.23905298370715</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>33.68775018244204</v>
+        <v>42.23762214217442</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>31.86956177607157</v>
+        <v>24.08087571739185</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>35.02386426836734</v>
+        <v>39.86185736829844</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.13775114589378</v>
+        <v>44.12039917511066</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.4231882448778</v>
+        <v>11.29772650097749</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.36142037488209</v>
+        <v>37.36437019731039</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.70690375170143</v>
+        <v>44.81659530223106</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.9629794087865</v>
+        <v>21.22053602039927</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>41.60232619588897</v>
+        <v>30.56192339172509</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>41.96598578679553</v>
+        <v>34.16592983704021</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.08600144226516</v>
+        <v>27.92956141241945</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>39.57946276174199</v>
+        <v>34.88321880874963</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>39.89852839321284</v>
+        <v>38.02575620947522</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>44.59627407306848</v>
+        <v>38.49530118911781</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>47.96831130455089</v>
+        <v>44.71597293206486</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>48.16061843413637</v>
+        <v>46.71481177853428</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>44.92552718794038</v>
+        <v>28.55595298274176</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>50.28855697568218</v>
+        <v>44.33895944607258</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>50.56971791172572</v>
+        <v>48.59818880987251</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>34.64281589560375</v>
+        <v>18.7578806777064</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>41.74626496840902</v>
+        <v>44.82427810518033</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>42.10359056152124</v>
+        <v>52.27656977238536</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>44.33530048839796</v>
+        <v>28.68094199611829</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>48.93415218258214</v>
+        <v>38.02252400204208</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.2350972947701</v>
+        <v>41.62669393391735</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>41.87500786441345</v>
+        <v>35.39022337270279</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>46.32759887787509</v>
+        <v>42.34407237085844</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>46.56622385994356</v>
+        <v>45.48669572000421</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>52.59372865089651</v>
+        <v>45.95650479532122</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>55.88440249928756</v>
+        <v>52.17720422973349</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>56.06957366937992</v>
+        <v>54.17612402449021</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>52.85311396667888</v>
+        <v>36.01712274367031</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>58.0750772479689</v>
+        <v>51.80012700616675</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>58.36247545561535</v>
+        <v>56.05959901212879</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.093208677853056</v>
+        <v>6.093208677870564</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.15646385204803</v>
+        <v>32.15646385205952</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>39.60794132857581</v>
+        <v>39.60794132864277</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16.01588559102896</v>
+        <v>16.01588559104511</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.35491023784431</v>
+        <v>25.35491023785329</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.95855253599365</v>
+        <v>28.95855253600899</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22.72339556677395</v>
+        <v>22.72339556672665</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.67525908651925</v>
+        <v>29.67525908652573</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.81749115594749</v>
+        <v>32.81749115592351</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.28684773009292</v>
+        <v>33.28684773007677</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>39.50637197144778</v>
+        <v>39.50637197143504</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.50496887298749</v>
+        <v>41.5049688729768</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.34870798130368</v>
+        <v>23.34870798136313</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>39.12915891253402</v>
+        <v>39.12915891251174</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>43.3877609022033</v>
+        <v>43.38776090223092</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.56570490952998</v>
+        <v>10.56570490954579</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.63167056405126</v>
+        <v>36.63167056404444</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>44.08389664962857</v>
+        <v>44.08389664959617</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20.48837132462717</v>
+        <v>20.48837132469492</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.82934429021697</v>
+        <v>29.82934429025892</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.4334094371132</v>
+        <v>33.43340943712604</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>27.19722640373487</v>
+        <v>27.19722640377944</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.15056721066031</v>
+        <v>34.15056721064724</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>37.29313701245241</v>
+        <v>37.29313701252391</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>37.76279383100183</v>
+        <v>37.7627938309775</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>43.98326497957061</v>
+        <v>43.98326497957424</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>45.98213157502147</v>
+        <v>45.98213157504784</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.82375833596399</v>
+        <v>27.82375833599332</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43.6062340373399</v>
+        <v>43.60623403728943</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>47.86552359464082</v>
+        <v>47.86552359459353</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>18.02554415053504</v>
+        <v>18.0255441505513</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.09126354393703</v>
+        <v>44.09126354396602</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.54355618874882</v>
+        <v>51.54355618876497</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>27.94846236005691</v>
+        <v>27.94846236005407</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>37.28962996839692</v>
+        <v>37.28962996837839</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>40.89385859651946</v>
+        <v>40.89385859653197</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.65757341235047</v>
+        <v>34.657573412418</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>41.61110582489192</v>
+        <v>41.61110582492125</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>44.75376157133059</v>
+        <v>44.75376157136628</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>45.22368248201366</v>
+        <v>45.22368248201764</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>51.44418132577795</v>
+        <v>51.44418132574748</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>53.44312886643075</v>
+        <v>53.44312886644997</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.28461314069074</v>
+        <v>35.28461314068539</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>51.06708665046887</v>
+        <v>51.06708665043124</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>55.32661884029636</v>
+        <v>55.32661884023247</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.124938845116446</v>
+        <v>5.124938845147597</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.18870963090973</v>
+        <v>31.18870963093451</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>38.64002715949408</v>
+        <v>38.64002715947021</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>15.04760998674243</v>
+        <v>15.04760998674607</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.38703409816804</v>
+        <v>24.38703409814633</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>27.99050562737767</v>
+        <v>27.9905056273887</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>21.75519627853549</v>
+        <v>21.75519627850548</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.70737326203079</v>
+        <v>28.70737326201089</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.84948597205431</v>
+        <v>31.84948597204988</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.31871011839172</v>
+        <v>32.31871011837637</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38.53840484027506</v>
+        <v>38.5384048403368</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.53691409338199</v>
+        <v>40.53691409342406</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>22.38032269983972</v>
+        <v>22.38032269984348</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>38.16125093037959</v>
+        <v>38.16125093043382</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.41966377853754</v>
+        <v>42.41966377862894</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9.597347025924762</v>
+        <v>9.597347025977172</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.66382832152095</v>
+        <v>35.66382832152448</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.11589443800784</v>
+        <v>43.1158944380274</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>19.52000768312092</v>
+        <v>19.52000768314332</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.8613801284767</v>
+        <v>28.86138012859686</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.46527447512136</v>
+        <v>32.46527447521231</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.22893909628652</v>
+        <v>26.22893909629312</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.18259337756064</v>
+        <v>33.18259337759952</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.32504379887251</v>
+        <v>36.32504379888456</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>36.79456821529897</v>
+        <v>36.79456821529794</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>43.01520985254905</v>
+        <v>43.0152098525943</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>45.01398878285164</v>
+        <v>45.01398878288359</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.855285050232</v>
+        <v>26.85528505020505</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>42.63823807813259</v>
+        <v>42.6382380781568</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>46.89733845784821</v>
+        <v>46.89733845783252</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.05777429956328</v>
+        <v>17.05777429955566</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.12400933087753</v>
+        <v>43.12400933086502</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>50.57614200768529</v>
+        <v>50.57614200768791</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.98068675693781</v>
+        <v>26.98068675694486</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.32225383346344</v>
+        <v>36.32225383353961</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>39.92631166464543</v>
+        <v>39.92631166466725</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>33.68987416496594</v>
+        <v>33.68987416490046</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>40.64372004538842</v>
+        <v>40.64372004539217</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>43.7862564141854</v>
+        <v>43.78625641417869</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>44.25604492258771</v>
+        <v>44.25604492255724</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>50.47671425012453</v>
+        <v>50.47671425014602</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>52.4755741287882</v>
+        <v>52.47557412873851</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>34.31672791033719</v>
+        <v>34.31672791030445</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>50.09967873529189</v>
+        <v>50.09967873524687</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>54.35902175506868</v>
+        <v>54.35902175511279</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4.794977119174803</v>
+        <v>4.794977119149792</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.85874857023822</v>
+        <v>30.85874857030245</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.31006714301401</v>
+        <v>38.31006714301299</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>14.71764207847394</v>
+        <v>14.71764207850168</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.05706638449925</v>
+        <v>24.05706638448902</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.66053989314986</v>
+        <v>27.66053989313644</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>21.42522734134519</v>
+        <v>21.42522734128164</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.37740238630005</v>
+        <v>28.37740238632153</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.51951576759149</v>
+        <v>31.51951576754806</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31.98877044920897</v>
+        <v>31.98877044920772</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>38.20846271674901</v>
+        <v>38.20846271680438</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>40.2069721463468</v>
+        <v>40.20697214634521</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22.05039230898802</v>
+        <v>22.05039230901792</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.83131534775254</v>
+        <v>37.83131534769922</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>42.08972902937927</v>
+        <v>42.08972902938086</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>9.267458158148941</v>
+        <v>9.267458158168495</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.33394012110995</v>
+        <v>35.3339401211112</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.78600728233101</v>
+        <v>42.78600728235932</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>19.19011263809131</v>
+        <v>19.19011263813439</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.53148527755496</v>
+        <v>28.53148527758771</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>32.13538160495449</v>
+        <v>32.13538160505396</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.89904302322731</v>
+        <v>25.89904302314477</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>32.85269536559639</v>
+        <v>32.85269536559753</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.99514645917151</v>
+        <v>35.99514645920311</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.46470140998764</v>
+        <v>36.46470140996342</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.68534059294331</v>
+        <v>42.68534059296616</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>44.68411970059589</v>
+        <v>44.68411970059361</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.52542752007326</v>
+        <v>26.52542752004223</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>42.30837535750157</v>
+        <v>42.30837535752147</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.56747657241414</v>
+        <v>46.56747657237094</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16.72793768964954</v>
+        <v>16.72793768975652</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.79417338987918</v>
+        <v>42.79417338992397</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>50.24630711054255</v>
+        <v>50.24630711053788</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>26.65084397100355</v>
+        <v>26.65084397099582</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.99241124212807</v>
+        <v>35.99241124212637</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.59647105385255</v>
+        <v>39.59647105384198</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>33.36003035144989</v>
+        <v>33.36003035140089</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>40.31387429390116</v>
+        <v>40.31387429391935</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>43.45641133439102</v>
+        <v>43.45641133442206</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.92623037350796</v>
+        <v>43.92623037349682</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>50.14689724768942</v>
+        <v>50.14689724772842</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>52.14575730326447</v>
+        <v>52.14575730324617</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.98692263470281</v>
+        <v>33.98692263472998</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>49.76986827115485</v>
+        <v>49.76986827119441</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>54.02921212546795</v>
+        <v>54.02921212553309</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.56847201066347</v>
+        <v>0.568472010635162</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.63168093675546</v>
+        <v>26.6316809367699</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>34.08311380993956</v>
+        <v>34.08311380996128</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>10.49089038201618</v>
+        <v>10.49089038203471</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.82985402496223</v>
+        <v>19.82985402493313</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.43344672065024</v>
+        <v>23.43344672067036</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>17.19829039179905</v>
+        <v>17.19829039179109</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.15010721531763</v>
+        <v>24.15010721532502</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.29230082484952</v>
+        <v>27.29230082484236</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.76175028844119</v>
+        <v>27.7617502884778</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.98125071469218</v>
+        <v>33.98125071469241</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.97982705951478</v>
+        <v>35.97982705948158</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>17.8237237338347</v>
+        <v>17.82372373382788</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>33.60410386677978</v>
+        <v>33.60410386677069</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>37.86265677400939</v>
+        <v>37.86265677404305</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>5.041088128415311</v>
+        <v>5.041088128459762</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>31.10700753600469</v>
+        <v>31.10700753600696</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.55918901488639</v>
+        <v>38.55918901486399</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>14.96349600349271</v>
+        <v>14.96349600343132</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.30440796353986</v>
+        <v>24.30440796351826</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.90842350220356</v>
+        <v>27.90842350226131</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>21.67224112127241</v>
+        <v>21.67224112123591</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.62553522966169</v>
+        <v>28.62553522967147</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.76806656768343</v>
+        <v>31.76806656766172</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.23781627617308</v>
+        <v>32.2378162761583</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.45826360897496</v>
+        <v>38.45826360894995</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>40.4571096445747</v>
+        <v>40.45710964458743</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>22.2988939736012</v>
+        <v>22.2988939736311</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>38.08129887677222</v>
+        <v>38.08129887674858</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>42.34053934516675</v>
+        <v>42.34053934519642</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>12.50140089027178</v>
+        <v>12.50140089026951</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>38.56707404085302</v>
+        <v>38.56707404089383</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.01932208146064</v>
+        <v>46.0193220814578</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.42406057141301</v>
+        <v>22.42406057137117</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.76516717743715</v>
+        <v>31.76516717748683</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>35.36934619638038</v>
+        <v>35.36934619645734</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.13306167588752</v>
+        <v>29.13306167582328</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.08654739224738</v>
+        <v>36.08654739222533</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.2291646749232</v>
+        <v>39.22916467491376</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>39.69917846670245</v>
+        <v>39.6991784667228</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>45.91965349640242</v>
+        <v>45.91965349647836</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>47.9185804770072</v>
+        <v>47.91858047698912</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.7602223076322</v>
+        <v>29.76022230763346</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>45.54262502481032</v>
+        <v>45.54262502481021</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>49.80210812478998</v>
+        <v>49.80210812477634</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>9.779891776340321</v>
+        <v>9.779891776377838</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.8432386777435</v>
+        <v>35.84323867774589</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.2946502618949</v>
+        <v>43.29465026187455</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>19.70265274602428</v>
+        <v>19.70265274603497</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.04177335500441</v>
+        <v>29.04177335503522</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.64537223011865</v>
+        <v>32.64537223017766</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.4102461133312</v>
+        <v>26.41024611335303</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.36219126985208</v>
+        <v>33.36219126981672</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.50438657333171</v>
+        <v>36.50438657334956</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.9736634306376</v>
+        <v>36.97366343066147</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>43.19323573297942</v>
+        <v>43.19323573295395</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>45.19180967103119</v>
+        <v>45.1918096709914</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.03542181579331</v>
+        <v>27.03542181585641</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>42.81600486285794</v>
+        <v>42.81600486284293</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>47.07455284645533</v>
+        <v>47.07455284642839</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>14.25321781473411</v>
+        <v>14.25321781476447</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>40.31927519470645</v>
+        <v>40.31927519468326</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>47.77143537479066</v>
+        <v>47.77143537476735</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>24.17596831717668</v>
+        <v>24.17596831713348</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.51703724223552</v>
+        <v>33.51703724225018</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.12105895283077</v>
+        <v>37.12105895279632</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>30.88490680109948</v>
+        <v>30.88490680112585</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>37.83832924339805</v>
+        <v>37.838329243445</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>40.98086226802019</v>
+        <v>40.98086226799347</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>41.45043936465873</v>
+        <v>41.45043936468898</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>47.67095857455098</v>
+        <v>47.67095857453279</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>49.66980219933072</v>
+        <v>49.66980219934254</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.51130199391065</v>
+        <v>31.51130199386358</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>47.29390981288526</v>
+        <v>47.29390981285297</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>21.71289693191005</v>
+        <v>21.71289693192449</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.77870804056766</v>
+        <v>47.77870804060029</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>55.23093478424829</v>
+        <v>55.2309347842899</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.63589922110481</v>
+        <v>31.63589922106559</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.9771627806229</v>
+        <v>40.97716278060801</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>44.58134797416159</v>
+        <v>44.58134797421229</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>38.34509367515938</v>
+        <v>38.34509367521781</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.29870771502675</v>
+        <v>45.29870771502152</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>48.44132668571791</v>
+        <v>48.4413266857045</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>48.91116787662196</v>
+        <v>48.91116787664231</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>55.13171477774068</v>
+        <v>55.13171477771022</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>57.13063934813346</v>
+        <v>57.13063934811447</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>38.97199666618991</v>
+        <v>38.97199666619548</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>54.75460228095932</v>
+        <v>54.75460228094533</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>59.01408044940814</v>
+        <v>59.01408044935698</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9.545726573273498</v>
+        <v>9.54572657330624</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>35.60903740352722</v>
+        <v>35.60903740349153</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>43.06021423108422</v>
+        <v>43.06021423101851</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.46844118790449</v>
+        <v>19.46844118785845</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.80767685302527</v>
+        <v>28.80767685305472</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>32.41109945126703</v>
+        <v>32.41109945122497</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.17596141799521</v>
+        <v>26.175961417981</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>33.12801169490427</v>
+        <v>33.12801169486664</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>36.27007116192311</v>
+        <v>36.27007116196336</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>36.73926805088848</v>
+        <v>36.73926805084119</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>42.9588649812427</v>
+        <v>42.95886498125088</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>44.95734492767036</v>
+        <v>44.95734492766741</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>26.80098538523242</v>
+        <v>26.80098538524516</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.58167524581444</v>
+        <v>42.58167524576396</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>46.84001894431759</v>
+        <v>46.84001894431532</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>14.01923817768574</v>
+        <v>14.01923817772462</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>40.08525946436595</v>
+        <v>40.08525946434435</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>47.53718485945723</v>
+        <v>47.53718485945927</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>23.94194234339608</v>
+        <v>23.94194234339096</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.28312630611305</v>
+        <v>33.28312630605325</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>36.88697170683105</v>
+        <v>36.88697170686117</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.65080768909326</v>
+        <v>30.65080768906211</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>37.60433523648516</v>
+        <v>37.60433523647856</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>40.74673240156602</v>
+        <v>40.74673240161763</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>41.21622954743071</v>
+        <v>41.21622954734909</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>47.43677337631624</v>
+        <v>47.43677337624325</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>49.43552299260585</v>
+        <v>49.43552299247648</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.27705113883547</v>
+        <v>31.27705113880273</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>47.05976575777783</v>
+        <v>47.05976575775281</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>51.31879696616096</v>
+        <v>51.31879696613208</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.47928666995114</v>
+        <v>21.47928667002742</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>47.54506168694974</v>
+        <v>47.54506168696565</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>54.99705364452046</v>
+        <v>54.99705364454309</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.40224262152145</v>
+        <v>31.40224262151975</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>40.74362120894892</v>
+        <v>40.74362120893426</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>44.34763009304112</v>
+        <v>44.34763009307386</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.11136395248985</v>
+        <v>38.11136395245825</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>45.06508309040208</v>
+        <v>45.06508309042687</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>48.20756620225967</v>
+        <v>48.20756620222079</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>48.67732743889309</v>
+        <v>48.67732743887365</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>54.89789895478094</v>
+        <v>54.89789895486257</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>56.89672951793335</v>
+        <v>56.89672951795052</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>38.73811519082375</v>
+        <v>38.73811519081386</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>54.52082759661988</v>
+        <v>54.52082759662886</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>58.78010144154194</v>
+        <v>58.78010144154808</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>3.713415884900826</v>
+        <v>3.713415884937206</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.77663313161673</v>
+        <v>29.77663313154466</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>37.22796486985925</v>
+        <v>37.22796486983356</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>13.63591870269937</v>
+        <v>13.63591870270426</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.97500251544335</v>
+        <v>22.97500251545642</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>26.57851782705842</v>
+        <v>26.57851782702727</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20.34336984326882</v>
+        <v>20.34336984326188</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.29527917052707</v>
+        <v>27.29527917050763</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.4374248980252</v>
+        <v>30.4374248979945</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.90673825210541</v>
+        <v>30.90673825209268</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>37.12625664754302</v>
+        <v>37.12625664754756</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>39.12478860240475</v>
+        <v>39.12478860237997</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.96862406649387</v>
+        <v>20.96862406651206</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>36.74909627807796</v>
+        <v>36.7490962780293</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>41.00756617028429</v>
+        <v>41.007566170242</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>8.185471969036996</v>
+        <v>8.185471969108619</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>34.25139969318144</v>
+        <v>34.25139969317803</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>41.70348002858958</v>
+        <v>41.70348002863165</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>18.10796427410656</v>
+        <v>18.10796427411782</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.44899640530872</v>
+        <v>27.44899640528166</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>31.05293454761983</v>
+        <v>31.0529345475972</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.81676051430628</v>
+        <v>24.81676051431879</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>31.77014712660292</v>
+        <v>31.77014712657632</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>34.91263057681766</v>
+        <v>34.91263057679652</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>35.38224418361352</v>
+        <v>35.38224418358465</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.60270948379792</v>
+        <v>41.60270948379952</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>43.60151112323905</v>
+        <v>43.60151112323882</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.44323426032696</v>
+        <v>25.44323426035606</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>41.22573124457955</v>
+        <v>41.22573124459819</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>45.48488868458816</v>
+        <v>45.48488868460657</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>15.64576291573513</v>
+        <v>15.64576291575685</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>41.71144439017593</v>
+        <v>41.71144439015546</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>49.16359127975255</v>
+        <v>49.16359127975699</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.56850701998513</v>
+        <v>25.56850701996888</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.90973379274527</v>
+        <v>34.90973379275971</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>38.51383541403044</v>
+        <v>38.51383541405954</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.27755924866295</v>
+        <v>32.27755924864044</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>39.23113746772714</v>
+        <v>39.23113746772827</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>42.37370686156265</v>
+        <v>42.37370686156925</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>42.84358455331193</v>
+        <v>42.84358455323792</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>49.0640775491043</v>
+        <v>49.0640775490545</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>51.062960133491</v>
+        <v>51.0629601334536</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>32.9045407765214</v>
+        <v>32.90454077654971</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>48.68703557484895</v>
+        <v>48.68703557485065</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>52.94643564480083</v>
+        <v>52.94643564481606</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>6.79924674713692</v>
+        <v>6.799246747124869</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>32.86281935854885</v>
+        <v>32.86281935860592</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.31427910974827</v>
+        <v>40.31427910974236</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>16.72199043849849</v>
+        <v>16.72199043842414</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>26.06118341720338</v>
+        <v>26.06118341721248</v>
       </c>
     </row>
     <row r="321">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.42958167584851</v>
+        <v>23.4295816758584</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.38157936275724</v>
+        <v>30.38157936288752</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.52378595075226</v>
+        <v>33.52378595088175</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>33.99311077243402</v>
+        <v>33.993110772443</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>40.21273078365658</v>
+        <v>40.21273078367466</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.21131177706144</v>
+        <v>42.21131177705712</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.05483037989922</v>
+        <v>24.05483037987307</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>39.83553196251302</v>
+        <v>39.83553196249426</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>44.09409342502846</v>
+        <v>44.09409342501539</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>11.27235579004656</v>
+        <v>11.27235579008669</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>37.33863890506274</v>
+        <v>37.33863890503648</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>44.79084725839067</v>
+        <v>44.79084725842432</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>21.19508900578904</v>
+        <v>21.19508900577506</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>30.5362303170171</v>
+        <v>30.53623031699425</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>34.14025937085563</v>
+        <v>34.14025937084926</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.9040253687628</v>
+        <v>27.90402536868038</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>34.85750035329994</v>
+        <v>34.8575003533436</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>38.00004466486956</v>
+        <v>38.00004466483171</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>38.46966973418552</v>
+        <v>38.46966973412503</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>44.69023666065158</v>
+        <v>44.6902366606293</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>46.68908734219059</v>
+        <v>46.68908734215512</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.53049358107825</v>
+        <v>28.53049358098878</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>44.31321995363118</v>
+        <v>44.31321995355864</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>48.57246897032832</v>
+        <v>48.57246897030456</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>18.73234887304369</v>
+        <v>18.73234887303835</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>44.79838571820204</v>
+        <v>44.79838571814486</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>52.2506606360717</v>
+        <v>52.2506606360451</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.65533388353498</v>
+        <v>28.65533388354123</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>37.99666983237995</v>
+        <v>37.99666983232527</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>41.60086237032425</v>
+        <v>41.60086237032743</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.36452622604492</v>
+        <v>35.36452622594499</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42.31819281195482</v>
+        <v>42.31819281197619</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>45.46082307053138</v>
+        <v>45.46082307054854</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>45.93071223135786</v>
+        <v>45.93071223142255</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>52.1513068506402</v>
+        <v>52.15130685069272</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>54.15023847870958</v>
+        <v>54.15023847877222</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>35.9915022335195</v>
+        <v>35.99150223353234</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>51.77422640541118</v>
+        <v>51.77422640538765</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>56.03371805969624</v>
+        <v>56.03371805971057</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.73492183550803</v>
+        <v>13.73492183547961</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>39.79853656791585</v>
+        <v>39.79853656789459</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>47.2498258387173</v>
+        <v>47.24982583865557</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.6578991383978</v>
+        <v>23.65789913836142</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>32.9973047090719</v>
+        <v>32.99730470907065</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>36.60079460538208</v>
+        <v>36.60079460539993</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.36560156008392</v>
+        <v>30.36560156010711</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>37.31776935515217</v>
+        <v>37.31776935517945</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>40.45988959560185</v>
+        <v>40.45988959555729</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>40.92902059502836</v>
+        <v>40.92902059500585</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>47.14869757223249</v>
+        <v>47.14869757222704</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>49.14720978145368</v>
+        <v>49.14720978146937</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.99055205438395</v>
+        <v>30.99055205436429</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>46.77146572639123</v>
+        <v>46.77146572634757</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>51.02988477615401</v>
+        <v>51.0298847761598</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>18.20754627993546</v>
+        <v>18.20754628002641</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>44.27387149148007</v>
+        <v>44.27387149154464</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>51.72590933993689</v>
+        <v>51.72590934000988</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.13051309469148</v>
+        <v>28.13051309473684</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>37.47186698491163</v>
+        <v>37.47186698492857</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>41.07577969081302</v>
+        <v>41.07577969082553</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>34.83956063187719</v>
+        <v>34.83956063188765</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>41.79320571270324</v>
+        <v>41.79320571273848</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>44.93566365774308</v>
+        <v>44.9356636577358</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>45.40509492550387</v>
+        <v>45.40509492554162</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>51.62571880958006</v>
+        <v>51.62571880965749</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>53.62450069345863</v>
+        <v>53.62450069343282</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>35.46573064685373</v>
+        <v>35.46573064687976</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>51.24866909536382</v>
+        <v>51.24866909537565</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>55.50777566706284</v>
+        <v>55.50777566708001</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.66728453830893</v>
+        <v>25.66728453839954</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>51.73336347706419</v>
+        <v>51.73336347712842</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>59.18546788245891</v>
+        <v>59.18546788250711</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>35.59050312906919</v>
+        <v>35.59050312910045</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>44.93205164421698</v>
+        <v>44.93205164426848</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>48.5361278327552</v>
+        <v>48.53612783275361</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>42.29980664303054</v>
+        <v>42.29980664304429</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>49.25364331645659</v>
+        <v>49.25364331650115</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>52.3961872065924</v>
+        <v>52.39618720660025</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>52.86588257531065</v>
+        <v>52.86588257527643</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>59.08653414649763</v>
+        <v>59.08653414649729</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>61.08539697673854</v>
+        <v>61.08539697674331</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>42.92648446299933</v>
+        <v>42.92648446302775</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>58.70942069762185</v>
+        <v>58.70942069762492</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>62.96876990501704</v>
+        <v>62.96876990502579</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-0.02014588063963174</v>
+        <v>-0.0201458806961341</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.04275157784156</v>
+        <v>26.04275157784986</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>33.49393252387284</v>
+        <v>33.4939325238401</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>9.901924032211298</v>
+        <v>9.901924032244722</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>19.24099808893737</v>
+        <v>19.24099808894726</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>22.8444008599443</v>
+        <v>22.8444008599551</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.60924208882506</v>
+        <v>16.60924208879391</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.56113963449201</v>
+        <v>23.56113963449042</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.70319864996765</v>
+        <v>26.70319864997674</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>27.17246699377773</v>
+        <v>27.17246699372396</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>33.39192541215772</v>
+        <v>33.39192541217818</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>35.39040262618749</v>
+        <v>35.39040262614714</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>17.23449651542597</v>
+        <v>17.23449651542256</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.01479737436506</v>
+        <v>33.01479737439587</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>37.27315131621998</v>
+        <v>37.27315131621032</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>4.451703743088444</v>
+        <v>4.451703743161318</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.51731164741744</v>
+        <v>30.51731164740028</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>37.9692411824447</v>
+        <v>37.96924118249223</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>14.37376316571846</v>
+        <v>14.37376316569856</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>23.7147855047802</v>
+        <v>23.71478550476724</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>27.31861110771098</v>
+        <v>27.31861110772292</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.08242629326145</v>
+        <v>21.08242629331079</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.03580109973421</v>
+        <v>28.03580109972069</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>31.17819783839292</v>
+        <v>31.17819783839894</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.64776642824717</v>
+        <v>31.64776642827991</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>37.8681717372562</v>
+        <v>37.86817173723438</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>39.86691863291554</v>
+        <v>39.86691863294828</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.70890022353836</v>
+        <v>21.70890022353893</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>37.49122582946183</v>
+        <v>37.49122582946228</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>41.75026731420127</v>
+        <v>41.75026731419979</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>11.91215873547861</v>
+        <v>11.9121587354793</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>37.97752039604535</v>
+        <v>37.97752039604921</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>45.42951648638081</v>
+        <v>45.42951648637603</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.83446996893548</v>
+        <v>21.83446996888273</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>31.17568694043456</v>
+        <v>31.17568694043501</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.77967602094606</v>
+        <v>34.77967602097698</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.5433890840672</v>
+        <v>28.54338908409255</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>35.49695549242114</v>
+        <v>35.49695549248764</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>38.63943817499108</v>
+        <v>38.63943817502519</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>39.10927084172914</v>
+        <v>39.10927084165479</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>45.32970384505217</v>
+        <v>45.32970384501965</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>47.32853168569801</v>
+        <v>47.32853168571029</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.17037077987362</v>
+        <v>29.17037077988101</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>44.95269420047708</v>
+        <v>44.95269420053438</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>49.21197831508135</v>
+        <v>49.2119783151249</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>4.549371759911935</v>
+        <v>4.549371759910571</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>30.61270887194092</v>
+        <v>30.61270887192626</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>38.06386131124253</v>
+        <v>38.06386131124901</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>14.47179016561171</v>
+        <v>14.47179016558238</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.81107443088951</v>
+        <v>23.81107443082959</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>27.41442803722106</v>
+        <v>27.41442803717752</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>21.17923892636628</v>
+        <v>21.1792389262443</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.13131486213791</v>
+        <v>28.13131486211233</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.27333111498473</v>
+        <v>31.27333111492857</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.74253350629755</v>
+        <v>31.74253350625946</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>37.96213442366508</v>
+        <v>37.96213442367485</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>39.96058971839892</v>
+        <v>39.96058971845406</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>21.80430085141762</v>
+        <v>21.8043008514075</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>37.58498584219518</v>
+        <v>37.58498584218233</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>41.84327475067261</v>
+        <v>41.84327475067215</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>9.022266481329609</v>
+        <v>9.022266481323015</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>35.08831405961729</v>
+        <v>35.08831405961035</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>42.54021507426825</v>
+        <v>42.54021507428223</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>18.94467443138473</v>
+        <v>18.94467443135653</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.28590699346813</v>
+        <v>28.28590699337855</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>31.88968341073229</v>
+        <v>31.88968341067454</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.65346829570836</v>
+        <v>25.65346829563686</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>32.60702150223682</v>
+        <v>32.60702150222738</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>35.74937546089944</v>
+        <v>35.74937546089626</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.21887811153732</v>
+        <v>36.21887811155187</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>42.43942592835657</v>
+        <v>42.43942592830382</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.43815089539015</v>
+        <v>44.43815089535514</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.27974971766349</v>
+        <v>26.27974971768225</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>42.06245947289898</v>
+        <v>42.06245947288852</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>46.32143590002846</v>
+        <v>46.32143590001061</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>16.48272191068924</v>
+        <v>16.48272191069208</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>42.54852322881965</v>
+        <v>42.54852322884</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>50.00049080691241</v>
+        <v>50.00049080691764</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>26.40538166315667</v>
+        <v>26.40538166316736</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.74680885189576</v>
+        <v>35.74680885190293</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>39.3507487536495</v>
+        <v>39.35074875366689</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>33.11443152200769</v>
+        <v>33.11443152199621</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>40.06817632344365</v>
+        <v>40.06817632339124</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>43.21061623040788</v>
+        <v>43.21061623035195</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>43.68038296540948</v>
+        <v>43.68038296539856</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>49.90095847174456</v>
+        <v>49.90095847171784</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>51.89976438666559</v>
+        <v>51.89976438671891</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>33.74122072354652</v>
+        <v>33.74122072354515</v>
       </c>
     </row>
     <row r="494">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>53.78314734079191</v>
+        <v>53.78314734076827</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1.28875255435338</v>
+        <v>1.288752554281075</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>27.35191524511839</v>
+        <v>27.35191524512476</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>34.80308990478824</v>
+        <v>34.80308990478449</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>11.21101577165467</v>
+        <v>11.21101577166081</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>20.55017030130233</v>
+        <v>20.55017030127914</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.15355037595583</v>
+        <v>24.15355037595197</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>17.91839432160924</v>
+        <v>17.91839432156002</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>24.87036030685471</v>
+        <v>24.87036030683629</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.0124011258726</v>
+        <v>28.01240112582133</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.48170103481908</v>
+        <v>28.48170103474473</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.70122123843015</v>
+        <v>34.70122123837047</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.69968677861556</v>
+        <v>36.69968677856951</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>18.54363844311996</v>
+        <v>18.54363844313247</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>34.32411698352922</v>
+        <v>34.32411698354446</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>38.58243673730266</v>
+        <v>38.58243673726309</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.760823676476264</v>
+        <v>5.760823676492635</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>31.82669683228102</v>
+        <v>31.82669683224464</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>39.27862007346874</v>
+        <v>39.27862007344146</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>15.68307639712913</v>
+        <v>15.68307639705193</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>25.02417922483249</v>
+        <v>25.0241792247968</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.62798211594503</v>
+        <v>28.62798211591127</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.3918000379295</v>
+        <v>22.39180003790415</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.34524329383083</v>
+        <v>29.34524329384186</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>32.48762182473905</v>
+        <v>32.48762182480021</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>32.95722198510401</v>
+        <v>32.95722198503512</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>39.1776890865911</v>
+        <v>39.17768908659122</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>41.17642430265863</v>
+        <v>41.17642430265988</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>23.0182636584363</v>
+        <v>23.01826365839946</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>38.80076696277405</v>
+        <v>38.80076696275972</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>43.05977424463805</v>
+        <v>43.05977424462532</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>13.22148537352399</v>
+        <v>13.22148537358038</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>39.28711228247204</v>
+        <v>39.28711228253206</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>46.73910208048773</v>
+        <v>46.73910208054093</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>23.14398990067929</v>
+        <v>23.14398990069316</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>32.48528736285397</v>
+        <v>32.48528736283157</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.08925373255175</v>
+        <v>36.0892537325646</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.85296954092888</v>
+        <v>29.85296954095821</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.80660439930847</v>
+        <v>36.80660439934132</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.94906887452561</v>
+        <v>39.94906887456392</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>40.41893310965946</v>
+        <v>40.41893310967163</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>46.63942790516847</v>
+        <v>46.63942790522452</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>48.63824406697751</v>
+        <v>48.63824406695022</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>30.47994092308824</v>
+        <v>30.47994092310574</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>46.26244204010567</v>
+        <v>46.26244204011283</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>50.52169195320056</v>
+        <v>50.52169195323046</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2.175651906767882</v>
+        <v>-2.175651906741848</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>23.88695299675527</v>
+        <v>23.88695299677391</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>31.33795312027866</v>
+        <v>31.33795312028161</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>7.74622133746692</v>
+        <v>7.746221337439295</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.08516793715427</v>
+        <v>17.08516793714483</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.68842686165016</v>
+        <v>20.68842686164948</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.45338117188697</v>
+        <v>14.45338117185275</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>21.40519530994931</v>
+        <v>21.40519530997466</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.54713698007794</v>
+        <v>24.54713698008521</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.01646119823528</v>
+        <v>25.01646119821061</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>31.23585001285772</v>
+        <v>31.2358500127994</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>33.23426166142139</v>
+        <v>33.23426166141047</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.07865407100491</v>
+        <v>15.07865407101855</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>30.85878107675381</v>
+        <v>30.85878107672301</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>35.11698037045045</v>
+        <v>35.11698037042487</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>2.296691836369121</v>
+        <v>2.29669183637867</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.36200715437707</v>
+        <v>28.36200715438673</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>35.81375584775759</v>
+        <v>35.81375584775816</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>12.21855460252146</v>
+        <v>12.21855460254159</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>21.55944945917787</v>
+        <v>21.55944945919504</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.16313119518014</v>
+        <v>25.16313119521539</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.9270595049914</v>
+        <v>18.92705950497799</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.88035088369105</v>
+        <v>25.88035088373448</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.02263026140389</v>
+        <v>29.02263026141298</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.49225471587368</v>
+        <v>29.49225471588448</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>35.71259040999456</v>
+        <v>35.71259041001775</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>37.71127173009205</v>
+        <v>37.71127173006533</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>19.55355186410446</v>
+        <v>19.55355186405967</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>35.33570359576373</v>
+        <v>35.33570359576862</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>39.59459040623329</v>
+        <v>39.59459040626774</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>9.757512054923893</v>
+        <v>9.757512054955839</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>35.82258113419226</v>
+        <v>35.82258113418521</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>43.27439638725065</v>
+        <v>43.27439638731624</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>19.67962663567999</v>
+        <v>19.67962663570307</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.02071612412846</v>
+        <v>29.02071612413266</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.62456133777806</v>
+        <v>32.62456133776374</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.38838754086368</v>
+        <v>26.38838754086413</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.34187051886937</v>
+        <v>33.3418705188821</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.48423584141443</v>
+        <v>36.4842358414017</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>36.95412436012253</v>
+        <v>36.95412436008354</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>43.17448774884764</v>
+        <v>43.17448774885389</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>45.17325001398416</v>
+        <v>45.17325001392504</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>27.01538764284265</v>
+        <v>27.01538764280411</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>42.79753719076717</v>
+        <v>42.79753719073886</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>47.0566666299199</v>
+        <v>47.05666662991763</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>3.781872644399471</v>
+        <v>3.781872644421981</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.84539187890795</v>
+        <v>29.84539187891045</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>37.29691691870113</v>
+        <v>37.29691691870795</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.704544440083</v>
+        <v>13.70454444003957</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.04366128079181</v>
+        <v>23.04366128073724</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.64730881583824</v>
+        <v>26.64730881583279</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>20.41208172955061</v>
+        <v>20.41208172964053</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.36401147599003</v>
+        <v>27.3640114760039</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.50625287976237</v>
+        <v>30.50625287980091</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.97564122582008</v>
+        <v>30.97564122586544</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.19522361636001</v>
+        <v>37.19522361631442</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.19382615671299</v>
+        <v>39.1938261566832</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>21.03743750216432</v>
+        <v>21.03743750215818</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>36.8180373622468</v>
+        <v>36.81803736220621</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>41.07665005286623</v>
+        <v>41.07665005280222</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>8.25416655527107</v>
+        <v>8.254166555334848</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>34.32039629733464</v>
+        <v>34.32039629735931</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>41.7726699517255</v>
+        <v>41.77266995181373</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>18.1768278429393</v>
+        <v>18.17682784289622</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.5178930209716</v>
+        <v>27.51789302100696</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>31.121963405298</v>
+        <v>31.12196340529709</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.88571024723495</v>
+        <v>24.88571024719619</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.83911729401308</v>
+        <v>31.83911729402399</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>34.98169643151726</v>
+        <v>34.98169643152124</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.45138502982212</v>
+        <v>35.45138502975618</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>41.67191433604393</v>
+        <v>41.67191433607076</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>43.67078657092662</v>
+        <v>43.67078657093117</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.51228555466702</v>
+        <v>25.51228555464849</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>41.29491020452309</v>
+        <v>41.2949102044833</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>45.55421046564601</v>
+        <v>45.55421046565317</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>15.71430971430362</v>
+        <v>15.71430971432557</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>41.78029319564251</v>
+        <v>41.78029319559261</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>49.23263340957334</v>
+        <v>49.23263340958266</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.63722280301801</v>
+        <v>25.637222803057</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.97848262681447</v>
+        <v>34.97848262691258</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>38.58271649326031</v>
+        <v>38.58271649328896</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.34636119023497</v>
+        <v>32.34636119025873</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>39.29995984595467</v>
+        <v>39.29995984598514</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>42.44262492874867</v>
+        <v>42.44262492892591</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>42.9125776176873</v>
+        <v>42.91257761770834</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>49.13313462075445</v>
+        <v>49.13313462076877</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>51.13208780146175</v>
+        <v>51.13208780147346</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.97344429160381</v>
+        <v>32.97344429155117</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>48.75606675319506</v>
+        <v>48.7560667531406</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>53.01560964883362</v>
+        <v>53.01560964884976</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>2.555266643966377</v>
+        <v>2.555266643973312</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.61838662301528</v>
+        <v>28.61838662300221</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>36.06953986093282</v>
+        <v>36.06953986098466</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.47753222702255</v>
+        <v>12.47753222706257</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>21.81672841670337</v>
+        <v>21.81672841675623</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.42009999392684</v>
+        <v>25.42009999399676</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>19.18491788209388</v>
+        <v>19.18491788206921</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>26.13691564527977</v>
+        <v>26.13691564529819</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.27894847449164</v>
+        <v>29.27894847449244</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.74817989386696</v>
+        <v>29.74817989385684</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>35.96771056409483</v>
+        <v>35.96771056411939</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.96617115897499</v>
+        <v>37.96617115897146</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>19.81008609652866</v>
+        <v>19.81008609656118</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>35.59058191732851</v>
+        <v>35.59058191732066</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>39.84889175188101</v>
+        <v>39.84889175192251</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>7.027332810678615</v>
+        <v>7.02733281068987</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>33.09316324187927</v>
+        <v>33.09316324180162</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>40.54506505878879</v>
+        <v>40.54506505882199</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>16.94958791040648</v>
+        <v>16.94958791041853</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.29073238695293</v>
+        <v>26.29073238695577</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.8945267824933</v>
+        <v>29.89452678245704</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>23.65831864713408</v>
+        <v>23.65831864719593</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>30.61179367334393</v>
+        <v>30.61179367338303</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.75416421481356</v>
+        <v>33.75416421485494</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.22369589097792</v>
+        <v>34.22369589093847</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>40.44417345479229</v>
+        <v>40.44417345478502</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.44290372465588</v>
+        <v>42.44290372466668</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>24.28470636506239</v>
+        <v>24.28470636506717</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.06722693908176</v>
+        <v>40.06722693909779</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>44.3262243010418</v>
+        <v>44.32622430104192</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>14.4877716472584</v>
+        <v>14.48777164729523</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>40.55335582647109</v>
+        <v>40.55335582644233</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>48.00532420256224</v>
+        <v>48.00532420259873</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>24.41027855096451</v>
+        <v>24.41027855094768</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.75161765606271</v>
+        <v>33.75161765605009</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37.35557553152415</v>
+        <v>37.35557553160226</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>31.11926527934094</v>
+        <v>31.11926527936254</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.072931903442</v>
+        <v>38.07293190345769</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>41.21538839033366</v>
+        <v>41.21538839035389</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>41.68518414585895</v>
+        <v>41.68518414584429</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>47.90568940152451</v>
+        <v>47.90568940150962</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.90450061789812</v>
+        <v>49.90450061789835</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>31.74616076667013</v>
+        <v>31.74616076669184</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>47.5286791460357</v>
+        <v>47.52867914601944</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>51.78791914197058</v>
+        <v>51.78791914197808</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>13.27733781166745</v>
+        <v>13.27733781170326</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.34112535018636</v>
+        <v>39.34112535018318</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.7926495128109</v>
+        <v>46.79264951280487</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>23.2004287369902</v>
+        <v>23.20042873698759</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>32.53975874349652</v>
+        <v>32.53975874355382</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.14341509616298</v>
+        <v>36.1434150962022</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.90818857214521</v>
+        <v>29.90818857211974</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.86028865647955</v>
+        <v>36.86028865653606</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>40.00253663421421</v>
+        <v>40.00253663421068</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>40.47175921280422</v>
+        <v>40.47175921281979</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>46.6914471868958</v>
+        <v>46.69144718691069</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.69005057104397</v>
+        <v>48.69005057104215</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.53328937408054</v>
+        <v>30.53328937410282</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>46.31418220963991</v>
+        <v>46.31418220962547</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.57279447890875</v>
+        <v>50.57279447889476</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>17.75012463444676</v>
+        <v>17.75012463448667</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>43.81662268486781</v>
+        <v>43.81662268482404</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>51.26889545321313</v>
+        <v>51.26889545318471</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.67320507023959</v>
+        <v>27.67320507029575</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>37.01448342010173</v>
+        <v>37.01448342008035</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>40.61856261186739</v>
+        <v>40.61856261184215</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>34.38231003141192</v>
+        <v>34.38231003142647</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>41.33588742085618</v>
+        <v>41.33588742086744</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>44.47847312378354</v>
+        <v>44.4784731238455</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>44.94799595739534</v>
+        <v>44.94799595734747</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>51.16863085082701</v>
+        <v>51.16863085083611</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>53.16750392458545</v>
+        <v>53.16750392457647</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.00863036043125</v>
+        <v>35.00863036052198</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>50.791547992581</v>
+        <v>50.79154799261136</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>55.05084781983652</v>
+        <v>55.05084781983686</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.20966909076679</v>
+        <v>25.20966909070961</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>51.27592086321971</v>
+        <v>51.27592086323222</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>58.72826019389396</v>
+        <v>58.72826019388702</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.13300130494559</v>
+        <v>35.1330013049016</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.47447428878667</v>
+        <v>44.47447428869776</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>48.07871696573005</v>
+        <v>48.07871696571402</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.84236223516524</v>
+        <v>41.84236223516695</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>48.79613122294944</v>
+        <v>48.79613122289976</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>51.93880287314317</v>
+        <v>51.93880287308883</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>52.40858980861827</v>
+        <v>52.40858980861123</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>58.62925239235318</v>
+        <v>58.62925239233397</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>60.62820641310321</v>
+        <v>60.62820641305944</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>42.46919037685115</v>
+        <v>42.46919037684364</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>58.25210580127833</v>
+        <v>58.25210580129288</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>62.51164826732673</v>
+        <v>62.51164826724897</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>7.520451198077069</v>
+        <v>7.52045119803762</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>33.58339853131287</v>
+        <v>33.58339853132071</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>41.03476260693316</v>
+        <v>41.0347626069784</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.4430273840332</v>
+        <v>17.44302738400921</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.78194338771738</v>
+        <v>26.78194338770089</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.38552987559609</v>
+        <v>30.38552987550833</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>24.15048851927662</v>
+        <v>24.15048851929527</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.10227508707538</v>
+        <v>31.10227508703707</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.24445562816169</v>
+        <v>34.24445562822092</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>34.71380393721546</v>
+        <v>34.71380393724445</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>40.9332606573002</v>
+        <v>40.9332606572803</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>42.93182697371668</v>
+        <v>42.9318269737833</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.77577380842064</v>
+        <v>24.77577380840916</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>40.5560545900284</v>
+        <v>40.55605459002146</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>44.81458423529006</v>
+        <v>44.81458423529301</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>11.99319324659422</v>
+        <v>11.99319324660809</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>38.05885102326823</v>
+        <v>38.05885102327426</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>45.51096369188537</v>
+        <v>45.51096369190662</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>21.9157589413191</v>
+        <v>21.91575894134695</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>31.25662323643991</v>
+        <v>31.25662323646003</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>34.86063256163249</v>
+        <v>34.86063256164613</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.62456516839205</v>
+        <v>28.62456516840217</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>35.57782900276999</v>
+        <v>35.57782900273327</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>38.72034726655642</v>
+        <v>38.72034726660212</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>39.18999581610166</v>
+        <v>39.18999581617271</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>45.41039943059963</v>
+        <v>45.41039943061645</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>47.40923543478488</v>
+        <v>47.40923543485025</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.2510699488459</v>
+        <v>29.25106994885954</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>45.03337547306984</v>
+        <v>45.03337547305904</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.29259266990556</v>
+        <v>49.29259266985679</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>19.4528407910297</v>
+        <v>19.45284079104084</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>45.51825230459934</v>
+        <v>45.51825230465312</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>52.97043153450414</v>
+        <v>52.97043153448925</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.37565827221039</v>
+        <v>29.37565827213263</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>38.71671720554258</v>
+        <v>38.71671720555906</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>42.32089000969262</v>
+        <v>42.32089000978368</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>36.08472046761898</v>
+        <v>36.08472046764456</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>43.03817590188891</v>
+        <v>43.03817590196996</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>46.18078010946721</v>
+        <v>46.18078010954383</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>46.65069274649653</v>
+        <v>46.65069274646038</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>52.8711240547695</v>
+        <v>52.87112405475392</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>54.87004100293717</v>
+        <v>54.87004100288431</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>36.71173303557345</v>
+        <v>36.71173303561278</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>52.49403636387814</v>
+        <v>52.49403636390838</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>56.75349619013099</v>
+        <v>56.75349619021148</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>5.464240450609452</v>
+        <v>5.464240450548175</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>31.52817068816768</v>
+        <v>31.5281706881446</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>38.97962553861731</v>
+        <v>38.97962553859412</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>15.38697676759108</v>
+        <v>15.38697676760199</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.72641859619881</v>
+        <v>24.72641859617016</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.32997839034198</v>
+        <v>28.3299783903347</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.09463448462844</v>
+        <v>22.0946344846314</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.04681629898749</v>
+        <v>29.04681629898135</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>32.18899828023535</v>
+        <v>32.18899828026196</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.65824805192398</v>
+        <v>32.65824805192057</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.87797116332746</v>
+        <v>38.87797116329676</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>40.87652875756436</v>
+        <v>40.87652875758278</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>22.71981461920672</v>
+        <v>22.71981461922695</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>38.50079237212373</v>
+        <v>38.50079237212941</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>42.75930910514097</v>
+        <v>42.75930910514347</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>9.936716173627872</v>
+        <v>9.936716173639923</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>36.00335694549193</v>
+        <v>36.00335694548272</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>43.45556040135745</v>
+        <v>43.45556040132891</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>19.85944200951286</v>
+        <v>19.85944200945045</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.20083218795531</v>
+        <v>29.20083218793803</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>32.80481481818794</v>
+        <v>32.80481481811188</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>26.56844485470202</v>
+        <v>26.56844485469156</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.52210397951109</v>
+        <v>33.52210397952041</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>36.66462368556114</v>
+        <v>36.6646236855641</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>37.13417372127884</v>
+        <v>37.13417372126884</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>43.35484375630352</v>
+        <v>43.35484375629397</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>45.35367103708694</v>
+        <v>45.35367103717425</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.19484452976729</v>
+        <v>27.19484452976536</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>42.97784709627905</v>
+        <v>42.9778470963002</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.23705138367558</v>
+        <v>47.23705138368592</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>17.39702531010397</v>
+        <v>17.39702531008248</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>43.46341981606173</v>
+        <v>43.46341981608651</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>50.9156898338411</v>
+        <v>50.91568983386486</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>27.32000294992457</v>
+        <v>27.32000294988092</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.66158776374431</v>
+        <v>36.66158776372623</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.26573388019079</v>
+        <v>40.26573388012019</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.02926178376123</v>
+        <v>34.02926178372962</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>40.98311251163733</v>
+        <v>40.98311251155025</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>44.12571816598319</v>
+        <v>44.12571816597568</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>44.59553229554746</v>
+        <v>44.59553229556838</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>50.81623002287432</v>
+        <v>50.81623002286625</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>52.81513825231326</v>
+        <v>52.81513825230769</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>34.65616925592434</v>
+        <v>34.65616925587807</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>50.4391696235528</v>
+        <v>50.43916962352392</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>54.69861655299854</v>
+        <v>54.69861655299525</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>3.316375720901817</v>
+        <v>3.316375720942176</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.37929245934737</v>
+        <v>29.37929245935919</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.83064807801378</v>
+        <v>36.83064807799207</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>13.23879548615929</v>
+        <v>13.23879548615031</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.57769694026894</v>
+        <v>22.57769694029292</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.1812650303919</v>
+        <v>26.18126503042646</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>19.94616640732846</v>
+        <v>19.94616640739781</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.89793980450719</v>
+        <v>26.89793980455232</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.04011163581293</v>
+        <v>30.04011163589854</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.5094745218949</v>
+        <v>30.50947452187353</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.7289110328224</v>
+        <v>36.72891103285923</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.72746895464769</v>
+        <v>38.72746895464019</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>20.57149280500852</v>
+        <v>20.57149280504137</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.35172783589707</v>
+        <v>36.35172783596164</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>40.61024305160339</v>
+        <v>40.61024305164602</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>7.788665844189438</v>
+        <v>7.788665844198192</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>33.85429303574784</v>
+        <v>33.85429303570669</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>41.30639725506813</v>
+        <v>41.30639725507029</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>17.71107511130964</v>
+        <v>17.71107511134261</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.05192486399534</v>
+        <v>27.05192486403308</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.65591579796211</v>
+        <v>30.65591579794869</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>24.41979111776101</v>
+        <v>24.41979111776942</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.37304178662413</v>
+        <v>31.37304178662242</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.51555134728511</v>
+        <v>34.51555134726749</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>34.9852144747386</v>
+        <v>34.98521447468778</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.20559788255872</v>
+        <v>41.20559788247186</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.20442549444869</v>
+        <v>43.20442549444357</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.04633702308314</v>
+        <v>25.04633702308303</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>40.82859680486541</v>
+        <v>40.8285968048537</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>45.08779957940686</v>
+        <v>45.08779957944461</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>15.24862661673563</v>
+        <v>15.24862661674359</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>41.31400755537828</v>
+        <v>41.31400755541205</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>48.76617833310371</v>
+        <v>48.76617833314475</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.17128768159779</v>
+        <v>25.17128768155141</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.51233207628417</v>
+        <v>34.51233207630861</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.11648648895181</v>
+        <v>38.1164864889401</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>31.88025966382344</v>
+        <v>31.88025966382094</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>38.8337019379947</v>
+        <v>38.83370193799027</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>41.9762974426838</v>
+        <v>41.97629744274985</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>42.44622465483184</v>
+        <v>42.44622465491062</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>48.66663575868398</v>
+        <v>48.66663575868057</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>50.66554431479011</v>
+        <v>50.66554431481751</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>32.50731335277254</v>
+        <v>32.50731335277618</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>48.28957094854121</v>
+        <v>48.28957094853359</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>52.54901635248126</v>
+        <v>52.54901635246728</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>6.114614842586718</v>
+        <v>6.114614842601156</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>32.17744601463249</v>
+        <v>32.17744601457838</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>39.62881104642082</v>
+        <v>39.62881104642776</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>16.03712534231664</v>
+        <v>16.037125342293</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.37597665146535</v>
+        <v>25.37597665144727</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.97956815410492</v>
+        <v>28.97956815409231</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.74453372575891</v>
+        <v>22.74453372576073</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.69626831303793</v>
+        <v>29.69626831304339</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>32.83845267764781</v>
+        <v>32.83845267767509</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.30782957056573</v>
+        <v>33.30782957055186</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>39.5272498167522</v>
+        <v>39.52724981679029</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.52581883363001</v>
+        <v>41.52581883365355</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>23.36986796180742</v>
+        <v>23.36986796174966</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>39.15005058657636</v>
+        <v>39.1500505865036</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>43.40858866698414</v>
+        <v>43.40858866699506</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>10.58709993749704</v>
+        <v>10.58709993753206</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>36.65264154448101</v>
+        <v>36.65264154446498</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>44.10475517224842</v>
+        <v>44.10475517224876</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.50959993704231</v>
+        <v>20.50959993698456</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.85039953246093</v>
+        <v>29.85039953246866</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>33.45441387618661</v>
+        <v>33.45441387615841</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.21835340412593</v>
+        <v>27.21835340408057</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>34.17156525341528</v>
+        <v>34.1715652534736</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>37.31408734367579</v>
+        <v>37.31408734373036</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>37.78376447668114</v>
+        <v>37.78376447670297</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>44.00413161436444</v>
+        <v>44.00413161438991</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>46.00297032051941</v>
+        <v>46.00297032049758</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>27.84490713602162</v>
+        <v>27.84490713600059</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>43.62711449572083</v>
+        <v>43.62711449574925</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>47.88634013182519</v>
+        <v>47.88634013178461</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>18.04678517942358</v>
+        <v>18.0467851794802</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>44.11208052726994</v>
+        <v>44.11208052726198</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>51.56426071473521</v>
+        <v>51.56426071473589</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.96953696790814</v>
+        <v>27.96953696790246</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>37.31053120335201</v>
+        <v>37.31053120338134</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>40.91470902520967</v>
+        <v>40.91470902521354</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>34.67854640338982</v>
+        <v>34.67854640334309</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>41.63194985488491</v>
+        <v>41.63194985486126</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>44.77455788820265</v>
+        <v>44.77455788820617</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>45.24449910733932</v>
+        <v>45.2444991072461</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>51.46489394009387</v>
+        <v>51.46489394008762</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.46381358978482</v>
+        <v>53.46381358977038</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>35.30560792008777</v>
+        <v>35.30560792009823</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>51.08781308841247</v>
+        <v>51.08781308840338</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>55.34728135257257</v>
+        <v>55.34728135254755</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>9.19936700920249</v>
+        <v>9.199367009101081</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>35.26277885009921</v>
+        <v>35.26277885006647</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>42.71418963267337</v>
+        <v>42.7141896326238</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>19.12222427601188</v>
+        <v>19.12222427597891</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.46137216128756</v>
+        <v>28.46137216127289</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>32.06496000925205</v>
+        <v>32.06496000933561</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.82979851928468</v>
+        <v>25.82979851933754</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>32.78175529105937</v>
+        <v>32.78175529112667</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>35.92395083097034</v>
+        <v>35.92395083101388</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>36.39323336986894</v>
+        <v>36.39323336983222</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>42.61280587428718</v>
+        <v>42.61280587427251</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>44.61137051561769</v>
+        <v>44.61137051569273</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>26.45497853779085</v>
+        <v>26.45497853775447</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>42.23558709405</v>
+        <v>42.23558709399737</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>46.49412135147367</v>
+        <v>46.49412135144445</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.6717453299961</v>
+        <v>13.67174532995824</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>39.7378676560275</v>
+        <v>39.73786765608594</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>47.1900270363746</v>
+        <v>47.19002703640359</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>23.59459209586652</v>
+        <v>23.59459209588425</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>32.93568830417433</v>
+        <v>32.93568830417809</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>36.53969898491192</v>
+        <v>36.53969898493409</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>30.30351144720402</v>
+        <v>30.30351144723232</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>37.25694550745465</v>
+        <v>37.25694550751695</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>40.39947876900607</v>
+        <v>40.39947876903005</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>40.86906156203639</v>
+        <v>40.86906156206982</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>47.0895809746375</v>
+        <v>47.08958097464978</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>49.08841530210026</v>
+        <v>49.08841530207343</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>30.92991098697968</v>
+        <v>30.92991098703357</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>46.71254431894539</v>
+        <v>46.71254431896472</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>50.97176612647826</v>
+        <v>50.97176612644688</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>21.13164170204863</v>
+        <v>21.13164170203805</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>47.19751776702407</v>
+        <v>47.19751776704794</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>54.64974370421982</v>
+        <v>54.64974370420515</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>31.05474025336906</v>
+        <v>31.05474025333359</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>40.39603110159277</v>
+        <v>40.39603110160823</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>44.00020526211171</v>
+        <v>44.00020526212285</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>37.76391558409495</v>
+        <v>37.76391558410074</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>44.71754124823764</v>
+        <v>44.71754124819148</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>47.86016045354728</v>
+        <v>47.86016045357218</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>48.33000733803595</v>
+        <v>48.33000733804187</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>54.55055444451483</v>
+        <v>54.55055444452131</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.54946971731141</v>
+        <v>56.54946971725514</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>38.39082291773872</v>
+        <v>38.39082291778078</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>54.17345405502982</v>
+        <v>54.17345405507007</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>58.43291849424298</v>
+        <v>58.43291849424799</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>6.825203424872882</v>
+        <v>6.825203424896984</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>32.88913658871121</v>
+        <v>32.88913658878306</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>40.34061308698762</v>
+        <v>40.34061308705492</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>16.74802342458389</v>
+        <v>16.74802342460163</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>26.08746244548587</v>
+        <v>26.08746244551304</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.69104605266574</v>
+        <v>29.69104605265949</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>23.4557036885098</v>
+        <v>23.45570368862656</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>30.40788377350719</v>
+        <v>30.40788377355824</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.55008344839229</v>
+        <v>33.55008344843776</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.0193281649361</v>
+        <v>34.01932816496713</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>40.23905298370715</v>
+        <v>40.23905298380367</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>42.23762214217442</v>
+        <v>42.23762214221421</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>24.08087571739185</v>
+        <v>24.08087571744278</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>39.86185736829844</v>
+        <v>39.86185736826286</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>44.12039917511066</v>
+        <v>44.120399175111</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>11.29772650097749</v>
+        <v>11.29772650100057</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>37.36437019731039</v>
+        <v>37.36437019733597</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>44.81659530223106</v>
+        <v>44.81659530223084</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>21.22053602039927</v>
+        <v>21.22053602039517</v>
       </c>
     </row>
     <row r="965">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.16592983704021</v>
+        <v>34.16592983702043</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>27.92956141241945</v>
+        <v>27.929561412552</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>34.88321880874963</v>
+        <v>34.88321880877851</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>38.02575620947522</v>
+        <v>38.02575620953479</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>38.49530118911781</v>
+        <v>38.49530118908132</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>44.71597293206486</v>
+        <v>44.71597293203291</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>46.71481177853428</v>
+        <v>46.71481177850632</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.55595298274176</v>
+        <v>28.5559529828509</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>44.33895944607258</v>
+        <v>44.33895944613977</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>48.59818880987251</v>
+        <v>48.5981888099306</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>18.7578806777064</v>
+        <v>18.75788067778041</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>44.82427810518033</v>
+        <v>44.82427810533892</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>52.27656977238536</v>
+        <v>52.27656977246471</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.68094199611829</v>
+        <v>28.68094199617127</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>38.02252400204208</v>
+        <v>38.0225240020564</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>41.62669393391735</v>
+        <v>41.62669393396988</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>35.39022337270279</v>
+        <v>35.39022337283785</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>42.34407237085844</v>
+        <v>42.34407237089937</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>45.48669572000421</v>
+        <v>45.48669572010243</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>45.95650479532122</v>
+        <v>45.9565047952803</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>52.17720422973349</v>
+        <v>52.17720422970848</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>54.17612402449021</v>
+        <v>54.17612402456297</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>36.01712274367031</v>
+        <v>36.01712274388495</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>51.80012700616675</v>
+        <v>51.80012700627543</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>56.05959901212879</v>
+        <v>56.05959901223929</v>
       </c>
     </row>
   </sheetData>
